--- a/data/csic-irregular/csic-irregular-terrains.xlsx
+++ b/data/csic-irregular/csic-irregular-terrains.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="152">
   <si>
     <t xml:space="preserve">Scenario-Protocol-PI-PI Algo template</t>
   </si>
@@ -99,7 +99,7 @@
     <t xml:space="preserve">Suitable Bipedal Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">Human, Prosthesis, Exosqueleton</t>
+    <t xml:space="preserve">Human, Prosthesis, Exoskeleton</t>
   </si>
   <si>
     <t xml:space="preserve">Possible values: Humanoid, prosthesis, exoskeleton, human</t>
@@ -108,7 +108,7 @@
     <t xml:space="preserve">Associated PI Algo</t>
   </si>
   <si>
-    <t xml:space="preserve">margin_stability, ratioIndex, variability, walkRatio</t>
+    <t xml:space="preserve">margin_stability, ratio_index, variability, walk_ratio</t>
   </si>
   <si>
     <t xml:space="preserve">Estimated experimentation duration</t>
@@ -156,10 +156,10 @@
     <t xml:space="preserve">Technical File Sheet</t>
   </si>
   <si>
-    <t xml:space="preserve">Optoelectronic motion capture system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VICON</t>
+    <t xml:space="preserve">Optoelectronic motion capture system or Vicon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor</t>
   </si>
   <si>
     <t xml:space="preserve">https://docs.vicon.com/display/Nexus210</t>
@@ -177,19 +177,16 @@
     <t xml:space="preserve">EMG+IMU sensors</t>
   </si>
   <si>
-    <t xml:space="preserve">DELSYS (Trigno Avanti)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://delsys.com/trigno/research/#trigno-avanti-sensor</t>
+    <t xml:space="preserve">DELSYS (Trigno Avanti) https://delsys.com/trigno/research/#trigno-avanti-sensor </t>
   </si>
   <si>
     <t xml:space="preserve">Sensorized insoles</t>
   </si>
   <si>
-    <t xml:space="preserve">MOTICON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.moticon.de/insole3-specs/</t>
+    <t xml:space="preserve">MOTICON https://www.moticon.de/insole3-specs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equipment</t>
   </si>
   <si>
     <t xml:space="preserve">3x1m commercial platform (PARALELA PLUS from Chinesport) with a fixed wooden board with holes into which anti-slip 50x50cm wooden modules, terrasensa modules or mats can be fitted. </t>
@@ -204,7 +201,7 @@
     <t xml:space="preserve">Complementary information</t>
   </si>
   <si>
-    <t xml:space="preserve">Place the optical markers onto the subject's body and take the required anthropometric measurements.</t>
+    <t xml:space="preserve">Place the optical markers and Delsys sensors onto the subject's body and take the required anthropometric measurements. Place the sensorized insoles in the subjects' shoes.</t>
   </si>
   <si>
     <t xml:space="preserve">Following the VICON's "Full Body Plug in Gait" marker set specifications (https://docs.vicon.com/display/Nexus26/Full+body+modeling+with+Plug-in+Gait) and  adding 8 clusters (thighs, tibias, feet, pelvis, chest).</t>
@@ -269,7 +266,7 @@
     <t xml:space="preserve">Margin of Stability (MoS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Analogous parameter to the condition of standing stability which states that the center of mass (CoM) should be within the base of support (BoS). The extrapolation to dynamic stability states that the position of the vertical projection of the CoM (PCoM) plus its velocity times a factor (extrapolated center of mass position (XCoM)) should be within the BoS.</t>
+    <t xml:space="preserve">Analogous parameter to the condition of standing stability which states that the center of mass (CoM) should be within the base of support (BoS). The extrapolation to dynamic stability states that the position of the vertical projection of the CoM (PCoM) plus its velocity times a factor (extrapolated center of mass position (XCoM)) should be within the BoS. </t>
   </si>
   <si>
     <t xml:space="preserve">cm</t>
@@ -296,36 +293,39 @@
     <t xml:space="preserve">Gait Deviation Index (GDI)</t>
   </si>
   <si>
-    <t xml:space="preserve">Scaled distance between 15 gait feature scores for a subject and the average of the same 15 gait feature scores for a control group of typically developing (TD) children.</t>
+    <t xml:space="preserve">Scaled distance between 15 gait feature scores for a subject and the average of the same 15 gait feature scores for a control group of typically developing (TD) children. </t>
   </si>
   <si>
     <t xml:space="preserve">- </t>
   </si>
   <si>
+    <t xml:space="preserve">Walk Ratio (WR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division of step length by cadence. It is used to measure overall gait control.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm/(step/min)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gait Parameters Variability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference between the value of a gait parameter when walking without the exoskeleton and the value of the same gait parameter obtained when walking wearing the exoskeleton.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit of the gait parameter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scalar</t>
   </si>
   <si>
-    <t xml:space="preserve">Walk Ratio (WR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Division of step length by cadence. It is used to measure overall gait control.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm/(step/min)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gait Parameters Variability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference between the value of a gait parameter when walking without the exoskeleton and the value of the same gait parameter obtained when walking wearing the exoskeleton.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit of the gait parameter</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ratio Index (RI)</t>
   </si>
   <si>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">Input command</t>
   </si>
   <si>
-    <t xml:space="preserve">"./run_pi;GaitEvents.csv;Anthropometry.yaml;com.csv;FeetTrajectories.csv"</t>
+    <t xml:space="preserve">[ ./run_pi_margin_stability, COM_plano01.csv, gaitEvents_plano01.csv, FeetTrajectories_plano01.csv, Anthropometry.yaml]</t>
   </si>
   <si>
     <t xml:space="preserve">Additional information on the code development (just needed for checking advancement)</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">Operating System</t>
   </si>
   <si>
-    <t xml:space="preserve">macOS Catalina 10.15.2</t>
+    <t xml:space="preserve">Windows 10</t>
   </si>
   <si>
     <t xml:space="preserve">Version Control System</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">https://github.com/AdrianaTorres/Irregular_Terrains/tree/master/Walk_Ratio_octave</t>
   </si>
   <si>
-    <t xml:space="preserve">[walking_ratio]</t>
+    <t xml:space="preserve">[walk_ratio]</t>
   </si>
   <si>
     <t xml:space="preserve">gaitParameters.yaml</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">Input files should be included in the data format</t>
   </si>
   <si>
-    <t xml:space="preserve">"./run_pi;gaitParameters.yaml"</t>
+    <t xml:space="preserve">[./run_pi_walk_ratio, GaitParameters_noExo.yaml]</t>
   </si>
   <si>
     <t xml:space="preserve">variability</t>
@@ -461,6 +461,9 @@
     <t xml:space="preserve">[gait_parameters_variability]</t>
   </si>
   <si>
+    <t xml:space="preserve">[./run_pi_variability, GaitParameters_exo.yaml, GaitParameters_noExo.yaml]</t>
+  </si>
+  <si>
     <t xml:space="preserve">ratioIndex</t>
   </si>
   <si>
@@ -474,6 +477,9 @@
   </si>
   <si>
     <t xml:space="preserve">[ratio_index]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[./run_pi_ratio_index, GaitParameters_noExo.yaml]</t>
   </si>
 </sst>
 </file>
@@ -484,7 +490,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -556,8 +562,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -576,7 +595,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +612,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
         <bgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -707,7 +732,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -800,6 +825,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -808,6 +837,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -816,6 +853,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -908,12 +949,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -928,15 +985,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -972,7 +1029,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -1039,9 +1096,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1895040</xdr:colOff>
+      <xdr:colOff>1894680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2676240</xdr:rowOff>
+      <xdr:rowOff>2675880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1055,7 +1112,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2312640" y="1304640"/>
-          <a:ext cx="1895040" cy="2676240"/>
+          <a:ext cx="1894680" cy="2675880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1076,9 +1133,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1895040</xdr:colOff>
+      <xdr:colOff>1894680</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>894960</xdr:rowOff>
+      <xdr:rowOff>894600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1092,7 +1149,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2312640" y="6467400"/>
-          <a:ext cx="1895040" cy="894960"/>
+          <a:ext cx="1894680" cy="894600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1113,9 +1170,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>132840</xdr:colOff>
+      <xdr:colOff>132480</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>199800</xdr:rowOff>
+      <xdr:rowOff>199440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1128,8 +1185,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4238280" y="14811120"/>
-          <a:ext cx="132840" cy="199800"/>
+          <a:off x="4238280" y="14801760"/>
+          <a:ext cx="132480" cy="199440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2506,8 +2563,8 @@
   </sheetPr>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2779,17 +2836,17 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="21"/>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="21"/>
@@ -2811,9 +2868,9 @@
         <v>48</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="21"/>
@@ -2834,56 +2891,58 @@
       <c r="B31" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="21"/>
       <c r="B32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="21"/>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
+      <c r="C33" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="C34" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="21"/>
@@ -2891,13 +2950,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="21"/>
@@ -2905,13 +2964,13 @@
         <v>2</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="21"/>
@@ -2919,25 +2978,25 @@
         <v>3</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+        <v>63</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="21"/>
       <c r="B38" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="21"/>
@@ -2945,25 +3004,25 @@
         <v>5</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
+        <v>66</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
     </row>
     <row r="40" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="21"/>
       <c r="B40" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="21"/>
@@ -2971,13 +3030,13 @@
         <v>7</v>
       </c>
       <c r="C41" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="21"/>
@@ -2985,11 +3044,11 @@
         <v>8</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
+        <v>71</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="21"/>
@@ -2997,11 +3056,11 @@
         <v>9</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
+        <v>72</v>
+      </c>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="21"/>
@@ -3009,11 +3068,11 @@
         <v>10</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
+        <v>73</v>
+      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="21"/>
@@ -3021,11 +3080,11 @@
         <v>11</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
+        <v>74</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="21"/>
@@ -3033,11 +3092,11 @@
         <v>12</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
+        <v>75</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4068,8 +4127,8 @@
   </sheetPr>
   <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G128" activeCellId="0" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4082,13 +4141,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="8"/>
     </row>
@@ -4102,18 +4161,18 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="20" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4121,34 +4180,34 @@
         <v>34</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>87</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4161,251 +4220,251 @@
       <c r="B12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="40" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="38" t="s">
+      <c r="A14" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="11" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="42" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>91</v>
+      <c r="A18" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="45" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="38" t="s">
+      <c r="A23" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="42" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="20" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="42" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="38" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="42" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="42" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="40" t="s">
+      <c r="B37" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B40" s="45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="33" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B42" s="48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="37" t="s">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="37" t="s">
+      <c r="D46" s="38" t="s">
         <v>87</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4415,14 +4474,14 @@
       <c r="B49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="45"/>
+      <c r="B50" s="49"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="46"/>
-      <c r="B51" s="47"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="51"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="s">
@@ -4452,7 +4511,7 @@
       <c r="A55" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="52" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4460,7 +4519,7 @@
       <c r="A56" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="53" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4482,10 +4541,10 @@
       <c r="A59" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="38" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4493,7 +4552,7 @@
       <c r="A60" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="55" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4521,7 +4580,7 @@
       <c r="A66" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="42" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4529,7 +4588,7 @@
       <c r="A67" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="56" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4572,14 +4631,14 @@
       <c r="B74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="45" t="s">
+      <c r="A75" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="45"/>
+      <c r="B75" s="49"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="46"/>
-      <c r="B76" s="47"/>
+      <c r="A76" s="50"/>
+      <c r="B76" s="51"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="s">
@@ -4593,7 +4652,7 @@
       <c r="A78" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="57" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4606,10 +4665,10 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B80" s="49" t="s">
+      <c r="B80" s="53" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4617,7 +4676,7 @@
       <c r="A81" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="49" t="s">
+      <c r="B81" s="53" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4642,7 +4701,7 @@
       <c r="B84" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D84" s="34" t="s">
+      <c r="D84" s="38" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4650,7 +4709,7 @@
       <c r="A85" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="58" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4678,7 +4737,7 @@
       <c r="A91" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B91" s="38" t="s">
+      <c r="B91" s="42" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4686,7 +4745,7 @@
       <c r="A92" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="56" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4729,14 +4788,14 @@
       <c r="B99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="45" t="s">
+      <c r="A100" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="45"/>
+      <c r="B100" s="49"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="46"/>
-      <c r="B101" s="47"/>
+      <c r="A101" s="50"/>
+      <c r="B101" s="51"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="15" t="s">
@@ -4755,7 +4814,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="33" t="s">
+      <c r="A104" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -4763,18 +4822,18 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="33" t="s">
+      <c r="A105" s="37" t="s">
         <v>107</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B106" s="49" t="s">
+      <c r="B106" s="53" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4799,7 +4858,7 @@
       <c r="B109" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D109" s="34" t="s">
+      <c r="D109" s="38" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4807,8 +4866,8 @@
       <c r="A110" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="20" t="s">
-        <v>140</v>
+      <c r="B110" s="59" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4835,7 +4894,7 @@
       <c r="A116" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="38" t="s">
+      <c r="B116" s="42" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4843,7 +4902,7 @@
       <c r="A117" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="56" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4880,167 +4939,167 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="52" t="s">
+      <c r="A124" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="B124" s="52"/>
+      <c r="B124" s="60"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="53" t="s">
+      <c r="A125" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B125" s="53"/>
+      <c r="B125" s="61"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="54"/>
-      <c r="B126" s="38"/>
+      <c r="A126" s="62"/>
+      <c r="B126" s="42"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="40" t="s">
+      <c r="A127" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B127" s="41" t="s">
+      <c r="B127" s="45" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="37" t="s">
+      <c r="A128" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="B128" s="55" t="s">
-        <v>145</v>
+      <c r="B128" s="63" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="37" t="s">
+      <c r="A129" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B129" s="38" t="s">
-        <v>146</v>
+      <c r="B129" s="42" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="37" t="s">
+      <c r="A130" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B130" s="56" t="s">
-        <v>147</v>
+      <c r="B130" s="64" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="37" t="s">
+      <c r="A131" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="B131" s="57" t="s">
-        <v>148</v>
+      <c r="B131" s="65" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="37" t="s">
+      <c r="A132" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B132" s="38"/>
+      <c r="B132" s="42"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="37" t="s">
+      <c r="A133" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B133" s="58" t="s">
-        <v>149</v>
+      <c r="B133" s="66" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="37" t="s">
+      <c r="A134" s="41" t="s">
         <v>114</v>
       </c>
       <c r="B134" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D134" s="34" t="s">
+      <c r="D134" s="38" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="37" t="s">
+      <c r="A135" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="B135" s="20" t="s">
-        <v>140</v>
+      <c r="B135" s="59" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="34"/>
-      <c r="B136" s="34"/>
+      <c r="A136" s="38"/>
+      <c r="B136" s="38"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="59" t="s">
+      <c r="A137" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B137" s="59"/>
+      <c r="B137" s="67"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="59" t="s">
+      <c r="A138" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="B138" s="59"/>
+      <c r="B138" s="67"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="60"/>
-      <c r="B139" s="60"/>
+      <c r="A139" s="68"/>
+      <c r="B139" s="68"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="40" t="s">
+      <c r="A140" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B140" s="41" t="s">
+      <c r="B140" s="45" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="37" t="s">
+      <c r="A141" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="B141" s="38" t="s">
+      <c r="B141" s="42" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="37" t="s">
+      <c r="A142" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B142" s="38" t="s">
+      <c r="B142" s="56" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="37" t="s">
+      <c r="A143" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="B143" s="38" t="s">
+      <c r="B143" s="42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="37" t="s">
+      <c r="A144" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B144" s="38" t="s">
+      <c r="B144" s="42" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="61" t="s">
+      <c r="A145" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="B145" s="38" t="s">
+      <c r="B145" s="42" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="37" t="s">
+      <c r="A146" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="B146" s="38" t="s">
+      <c r="B146" s="42" t="s">
         <v>132</v>
       </c>
     </row>

--- a/data/csic-irregular/csic-irregular-terrains.xlsx
+++ b/data/csic-irregular/csic-irregular-terrains.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\104139\Documents\code\eurobench\eurobench_protocol\data\csic-irregular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070860AA-06FE-4CEA-9EA7-455155E7726B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97138E79-5ABC-458C-804B-5F4F41BFBE50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54000" yWindow="270" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="212">
   <si>
     <t>Scenario-Protocol-PI-PI Algo template</t>
   </si>
@@ -488,9 +488,6 @@
     <t>marginStability_calculation, ratioIndex_calculation, variability_ calculation, walkRatio_calculation</t>
   </si>
   <si>
-    <t xml:space="preserve">Exoskeleton </t>
-  </si>
-  <si>
     <t>Terrain configuration</t>
   </si>
   <si>
@@ -530,54 +527,6 @@
     <t>The subject must walk through each terrain configuration 4 times with an without wearing an exoskeleton.</t>
   </si>
   <si>
-    <t>Place the optical markers onto the subject's body and take the required anthropometric measurements.</t>
-  </si>
-  <si>
-    <t>Place the subject in the middle of the recording area.</t>
-  </si>
-  <si>
-    <t>Launch the Data collection software.</t>
-  </si>
-  <si>
-    <t>Take a static capture of the subject.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Place the subject at the starting point. </t>
-  </si>
-  <si>
-    <t>Ask the subject to walk through the testbed at a comfortable speed four times.</t>
-  </si>
-  <si>
-    <t>Change the irregular terrain configuration of the testbed.</t>
-  </si>
-  <si>
-    <t>Repeat the procedure starting at step 5 until completing all the terrain conditions.</t>
-  </si>
-  <si>
-    <t>Remove from the subject the optical markers from the pelvis, thighs, knees, tibias and ankles and put him/her the exoskeleton.</t>
-  </si>
-  <si>
-    <t>Let the subject walk with the exoskeleton over flat floor for 10 minutes so that he/she gets familiarized with it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repeat steps 5 to 8 until completing again four walks per terrain condition. </t>
-  </si>
-  <si>
-    <t>Remove the exoskeleton and optical markers from the subject.</t>
-  </si>
-  <si>
-    <t>Following the VICON's "Full Body Plug in Gait" marker set specifications (https://docs.vicon.com/display/Nexus26/Full+body+modeling+with+Plug-in+Gait) and  adding 8 clusters (thighs, tibias, feet, pelvis, chest).</t>
-  </si>
-  <si>
-    <t>The subject must be standing in motorbike position (upright posture, both arms at shoulder's height with upper arm and forearm at 90 degrees).</t>
-  </si>
-  <si>
-    <t>A capture per walk should be recorded.</t>
-  </si>
-  <si>
-    <t>The order must be randomized.</t>
-  </si>
-  <si>
     <t>1 (at the moment)</t>
   </si>
   <si>
@@ -741,6 +690,66 @@
   </si>
   <si>
     <t>./run_pi_walk_ratio GaitParameters_noExo.yaml output</t>
+  </si>
+  <si>
+    <t>Wearable device</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>T / F</t>
+  </si>
+  <si>
+    <t>Speed condition</t>
+  </si>
+  <si>
+    <t>Self-selected normal speed, self-selected low speed, self-selected high speed</t>
+  </si>
+  <si>
+    <t>[0-2]</t>
+  </si>
+  <si>
+    <t>Let the subject familiarize with the testbed and the wearable device.</t>
+  </si>
+  <si>
+    <t>Instrument the subject.</t>
+  </si>
+  <si>
+    <t>Ask the subject to perform a trial on ground level walking at self-selected normal speed (SNS) without the wearable device.</t>
+  </si>
+  <si>
+    <t>For a trial to be valid, it must contain at least 10 strides.</t>
+  </si>
+  <si>
+    <t>Set up an uneven terrain configuration.</t>
+  </si>
+  <si>
+    <t>Ask the subject to perform a trial over the uneven terrain at self-selected normal speed (SNS) without the wearable device.</t>
+  </si>
+  <si>
+    <t>Repeat step 5 at at self-selected low speed (SLS) and self-selected high speed (SHS).</t>
+  </si>
+  <si>
+    <t>This step is optional. In case of executing it, it is recommended to randomize the speed conditions by alternating SNS, SLS and SHS to avoid bias.</t>
+  </si>
+  <si>
+    <t>Let the subject rest for 5 minutes.</t>
+  </si>
+  <si>
+    <t>Repeat steps 4 to 8 until all the desired terrain configurations are tested.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put the wearable device on the subject. </t>
+  </si>
+  <si>
+    <t>Repeat steps 2 to 8.</t>
+  </si>
+  <si>
+    <t>Remove the wearable device from the subject.</t>
+  </si>
+  <si>
+    <t>Take the data and analyze it.</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1110,8 +1119,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1121,9 +1128,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1169,6 +1173,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1176,35 +1186,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1223,65 +1260,38 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1739,8 +1749,8 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1774,8 +1784,8 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1837,8 +1847,8 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1907,10 +1917,10 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1957,10 +1967,10 @@
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2952,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:F20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2967,14 +2977,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
       <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
@@ -3004,25 +3014,25 @@
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="13"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="13" t="s">
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3030,13 +3040,13 @@
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="13" t="s">
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3044,188 +3054,188 @@
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="13" t="s">
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G9" s="13"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="13"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="13"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="15">
+      <c r="B12" s="14"/>
+      <c r="C12" s="13">
         <v>1</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G13" s="13"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="69" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="13" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="13" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="13" t="s">
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="13" t="s">
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="13"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="51" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -3243,56 +3253,68 @@
       <c r="F23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="80"/>
+      <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="31" t="s">
+      <c r="A24" s="52"/>
+      <c r="B24" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
+      <c r="B25" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="81" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="31" t="s">
+      <c r="C25" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="31" t="s">
+      <c r="E25" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="81" t="s">
-        <v>206</v>
+      <c r="F25" s="12"/>
+      <c r="G25" s="34" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="80"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="13"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="38" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -3301,3196 +3323,3198 @@
       <c r="C28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="46" t="s">
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="71" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="31" t="s">
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="45"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="47"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="47"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="47"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="45"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="47"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="45"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="74"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="47"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="45"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="13"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="13" t="s">
+      <c r="C35" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
-      <c r="B36" s="21" t="s">
+      <c r="A36" s="57"/>
+      <c r="B36" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="D36" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="46" t="s">
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="22">
+      <c r="A37" s="57"/>
+      <c r="B37" s="19">
         <v>1</v>
       </c>
-      <c r="C37" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="47"/>
+      <c r="C37" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="60"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="45"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="22">
+      <c r="A38" s="57"/>
+      <c r="B38" s="19">
         <v>2</v>
       </c>
-      <c r="C38" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="47"/>
+      <c r="C38" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="60"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="45"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="22">
+      <c r="A39" s="57"/>
+      <c r="B39" s="19">
         <v>3</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="47"/>
+      <c r="C39" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="79"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="45"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="22">
+      <c r="A40" s="57"/>
+      <c r="B40" s="19">
         <v>4</v>
       </c>
-      <c r="C40" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="47"/>
+      <c r="C40" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="46"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="45"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="22">
+      <c r="A41" s="57"/>
+      <c r="B41" s="19">
         <v>5</v>
       </c>
-      <c r="C41" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="47"/>
+      <c r="C41" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="46"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="45"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="22">
+      <c r="A42" s="57"/>
+      <c r="B42" s="19">
         <v>6</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="47"/>
+      <c r="C42" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="45"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="22">
+      <c r="A43" s="57"/>
+      <c r="B43" s="19">
         <v>7</v>
       </c>
-      <c r="C43" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="47"/>
+      <c r="C43" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" s="46"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="45"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
-      <c r="B44" s="22">
+      <c r="A44" s="57"/>
+      <c r="B44" s="19">
         <v>8</v>
       </c>
-      <c r="C44" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="47"/>
+      <c r="C44" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="45"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
-      <c r="B45" s="22">
+      <c r="A45" s="57"/>
+      <c r="B45" s="19">
         <v>9</v>
       </c>
-      <c r="C45" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="47"/>
+      <c r="C45" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" s="46"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="45"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
-      <c r="B46" s="22">
+      <c r="A46" s="57"/>
+      <c r="B46" s="19">
         <v>10</v>
       </c>
-      <c r="C46" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="47"/>
+      <c r="C46" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="46"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="45"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
-      <c r="B47" s="22">
+      <c r="A47" s="57"/>
+      <c r="B47" s="19">
         <v>11</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="47"/>
+      <c r="C47" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="46"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="45"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="68"/>
-      <c r="B48" s="22">
+      <c r="A48" s="58"/>
+      <c r="B48" s="19">
         <v>12</v>
       </c>
-      <c r="C48" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="47"/>
+      <c r="C48" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48" s="46"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="45"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G49" s="13"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="70" t="s">
+      <c r="A50" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="23" t="s">
+      <c r="B50" s="43"/>
+      <c r="C50" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" s="40"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="24" t="s">
+      <c r="D50" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="42"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="63" t="s">
+      <c r="A51" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="41"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="25" t="s">
+      <c r="D51" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="65" t="s">
+      <c r="A52" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="41"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="E52" s="40"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="25" t="s">
+      <c r="D52" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G53" s="13"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G54" s="13"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G55" s="13"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G56" s="13"/>
+      <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G57" s="13"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G58" s="13"/>
+      <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G59" s="13"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G60" s="13"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G61" s="13"/>
+      <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G62" s="13"/>
+      <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G63" s="13"/>
+      <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G64" s="13"/>
+      <c r="G64" s="11"/>
     </row>
     <row r="65" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G65" s="13"/>
+      <c r="G65" s="11"/>
     </row>
     <row r="66" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G66" s="13"/>
+      <c r="G66" s="11"/>
     </row>
     <row r="67" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G67" s="13"/>
+      <c r="G67" s="11"/>
     </row>
     <row r="68" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G68" s="13"/>
+      <c r="G68" s="11"/>
     </row>
     <row r="69" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G69" s="13"/>
+      <c r="G69" s="11"/>
     </row>
     <row r="70" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G70" s="13"/>
+      <c r="G70" s="11"/>
     </row>
     <row r="71" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G71" s="13"/>
+      <c r="G71" s="11"/>
     </row>
     <row r="72" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G72" s="13"/>
+      <c r="G72" s="11"/>
     </row>
     <row r="73" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G73" s="13"/>
+      <c r="G73" s="11"/>
     </row>
     <row r="74" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G74" s="13"/>
+      <c r="G74" s="11"/>
     </row>
     <row r="75" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G75" s="13"/>
+      <c r="G75" s="11"/>
     </row>
     <row r="76" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G76" s="13"/>
+      <c r="G76" s="11"/>
     </row>
     <row r="77" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G77" s="13"/>
+      <c r="G77" s="11"/>
     </row>
     <row r="78" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G78" s="13"/>
+      <c r="G78" s="11"/>
     </row>
     <row r="79" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G79" s="13"/>
+      <c r="G79" s="11"/>
     </row>
     <row r="80" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G80" s="13"/>
+      <c r="G80" s="11"/>
     </row>
     <row r="81" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G81" s="13"/>
+      <c r="G81" s="11"/>
     </row>
     <row r="82" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G82" s="13"/>
+      <c r="G82" s="11"/>
     </row>
     <row r="83" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G83" s="13"/>
+      <c r="G83" s="11"/>
     </row>
     <row r="84" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G84" s="13"/>
+      <c r="G84" s="11"/>
     </row>
     <row r="85" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G85" s="13"/>
+      <c r="G85" s="11"/>
     </row>
     <row r="86" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G86" s="13"/>
+      <c r="G86" s="11"/>
     </row>
     <row r="87" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G87" s="13"/>
+      <c r="G87" s="11"/>
     </row>
     <row r="88" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G88" s="13"/>
+      <c r="G88" s="11"/>
     </row>
     <row r="89" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G89" s="13"/>
+      <c r="G89" s="11"/>
     </row>
     <row r="90" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G90" s="13"/>
+      <c r="G90" s="11"/>
     </row>
     <row r="91" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G91" s="13"/>
+      <c r="G91" s="11"/>
     </row>
     <row r="92" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G92" s="13"/>
+      <c r="G92" s="11"/>
     </row>
     <row r="93" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G93" s="13"/>
+      <c r="G93" s="11"/>
     </row>
     <row r="94" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G94" s="13"/>
+      <c r="G94" s="11"/>
     </row>
     <row r="95" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G95" s="13"/>
+      <c r="G95" s="11"/>
     </row>
     <row r="96" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G96" s="13"/>
+      <c r="G96" s="11"/>
     </row>
     <row r="97" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G97" s="13"/>
+      <c r="G97" s="11"/>
     </row>
     <row r="98" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G98" s="13"/>
+      <c r="G98" s="11"/>
     </row>
     <row r="99" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G99" s="13"/>
+      <c r="G99" s="11"/>
     </row>
     <row r="100" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G100" s="13"/>
+      <c r="G100" s="11"/>
     </row>
     <row r="101" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G101" s="13"/>
+      <c r="G101" s="11"/>
     </row>
     <row r="102" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G102" s="13"/>
+      <c r="G102" s="11"/>
     </row>
     <row r="103" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G103" s="13"/>
+      <c r="G103" s="11"/>
     </row>
     <row r="104" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G104" s="13"/>
+      <c r="G104" s="11"/>
     </row>
     <row r="105" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G105" s="13"/>
+      <c r="G105" s="11"/>
     </row>
     <row r="106" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G106" s="13"/>
+      <c r="G106" s="11"/>
     </row>
     <row r="107" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G107" s="13"/>
+      <c r="G107" s="11"/>
     </row>
     <row r="108" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G108" s="13"/>
+      <c r="G108" s="11"/>
     </row>
     <row r="109" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G109" s="13"/>
+      <c r="G109" s="11"/>
     </row>
     <row r="110" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G110" s="13"/>
+      <c r="G110" s="11"/>
     </row>
     <row r="111" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G111" s="13"/>
+      <c r="G111" s="11"/>
     </row>
     <row r="112" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G112" s="13"/>
+      <c r="G112" s="11"/>
     </row>
     <row r="113" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G113" s="13"/>
+      <c r="G113" s="11"/>
     </row>
     <row r="114" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G114" s="13"/>
+      <c r="G114" s="11"/>
     </row>
     <row r="115" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G115" s="13"/>
+      <c r="G115" s="11"/>
     </row>
     <row r="116" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G116" s="13"/>
+      <c r="G116" s="11"/>
     </row>
     <row r="117" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G117" s="13"/>
+      <c r="G117" s="11"/>
     </row>
     <row r="118" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G118" s="13"/>
+      <c r="G118" s="11"/>
     </row>
     <row r="119" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G119" s="13"/>
+      <c r="G119" s="11"/>
     </row>
     <row r="120" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G120" s="13"/>
+      <c r="G120" s="11"/>
     </row>
     <row r="121" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G121" s="13"/>
+      <c r="G121" s="11"/>
     </row>
     <row r="122" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G122" s="13"/>
+      <c r="G122" s="11"/>
     </row>
     <row r="123" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G123" s="13"/>
+      <c r="G123" s="11"/>
     </row>
     <row r="124" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G124" s="13"/>
+      <c r="G124" s="11"/>
     </row>
     <row r="125" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G125" s="13"/>
+      <c r="G125" s="11"/>
     </row>
     <row r="126" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G126" s="13"/>
+      <c r="G126" s="11"/>
     </row>
     <row r="127" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G127" s="13"/>
+      <c r="G127" s="11"/>
     </row>
     <row r="128" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G128" s="13"/>
+      <c r="G128" s="11"/>
     </row>
     <row r="129" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G129" s="13"/>
+      <c r="G129" s="11"/>
     </row>
     <row r="130" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G130" s="13"/>
+      <c r="G130" s="11"/>
     </row>
     <row r="131" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G131" s="13"/>
+      <c r="G131" s="11"/>
     </row>
     <row r="132" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G132" s="13"/>
+      <c r="G132" s="11"/>
     </row>
     <row r="133" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G133" s="13"/>
+      <c r="G133" s="11"/>
     </row>
     <row r="134" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G134" s="13"/>
+      <c r="G134" s="11"/>
     </row>
     <row r="135" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G135" s="13"/>
+      <c r="G135" s="11"/>
     </row>
     <row r="136" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G136" s="13"/>
+      <c r="G136" s="11"/>
     </row>
     <row r="137" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G137" s="13"/>
+      <c r="G137" s="11"/>
     </row>
     <row r="138" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G138" s="13"/>
+      <c r="G138" s="11"/>
     </row>
     <row r="139" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G139" s="13"/>
+      <c r="G139" s="11"/>
     </row>
     <row r="140" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G140" s="13"/>
+      <c r="G140" s="11"/>
     </row>
     <row r="141" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G141" s="13"/>
+      <c r="G141" s="11"/>
     </row>
     <row r="142" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G142" s="13"/>
+      <c r="G142" s="11"/>
     </row>
     <row r="143" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G143" s="13"/>
+      <c r="G143" s="11"/>
     </row>
     <row r="144" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G144" s="13"/>
+      <c r="G144" s="11"/>
     </row>
     <row r="145" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G145" s="13"/>
+      <c r="G145" s="11"/>
     </row>
     <row r="146" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G146" s="13"/>
+      <c r="G146" s="11"/>
     </row>
     <row r="147" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G147" s="13"/>
+      <c r="G147" s="11"/>
     </row>
     <row r="148" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G148" s="13"/>
+      <c r="G148" s="11"/>
     </row>
     <row r="149" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G149" s="13"/>
+      <c r="G149" s="11"/>
     </row>
     <row r="150" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G150" s="13"/>
+      <c r="G150" s="11"/>
     </row>
     <row r="151" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G151" s="13"/>
+      <c r="G151" s="11"/>
     </row>
     <row r="152" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G152" s="13"/>
+      <c r="G152" s="11"/>
     </row>
     <row r="153" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G153" s="13"/>
+      <c r="G153" s="11"/>
     </row>
     <row r="154" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G154" s="13"/>
+      <c r="G154" s="11"/>
     </row>
     <row r="155" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G155" s="13"/>
+      <c r="G155" s="11"/>
     </row>
     <row r="156" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G156" s="13"/>
+      <c r="G156" s="11"/>
     </row>
     <row r="157" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G157" s="13"/>
+      <c r="G157" s="11"/>
     </row>
     <row r="158" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G158" s="13"/>
+      <c r="G158" s="11"/>
     </row>
     <row r="159" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G159" s="13"/>
+      <c r="G159" s="11"/>
     </row>
     <row r="160" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G160" s="13"/>
+      <c r="G160" s="11"/>
     </row>
     <row r="161" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G161" s="13"/>
+      <c r="G161" s="11"/>
     </row>
     <row r="162" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G162" s="13"/>
+      <c r="G162" s="11"/>
     </row>
     <row r="163" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G163" s="13"/>
+      <c r="G163" s="11"/>
     </row>
     <row r="164" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G164" s="13"/>
+      <c r="G164" s="11"/>
     </row>
     <row r="165" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G165" s="13"/>
+      <c r="G165" s="11"/>
     </row>
     <row r="166" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G166" s="13"/>
+      <c r="G166" s="11"/>
     </row>
     <row r="167" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G167" s="13"/>
+      <c r="G167" s="11"/>
     </row>
     <row r="168" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G168" s="13"/>
+      <c r="G168" s="11"/>
     </row>
     <row r="169" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G169" s="13"/>
+      <c r="G169" s="11"/>
     </row>
     <row r="170" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G170" s="13"/>
+      <c r="G170" s="11"/>
     </row>
     <row r="171" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G171" s="13"/>
+      <c r="G171" s="11"/>
     </row>
     <row r="172" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G172" s="13"/>
+      <c r="G172" s="11"/>
     </row>
     <row r="173" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G173" s="13"/>
+      <c r="G173" s="11"/>
     </row>
     <row r="174" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G174" s="13"/>
+      <c r="G174" s="11"/>
     </row>
     <row r="175" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G175" s="13"/>
+      <c r="G175" s="11"/>
     </row>
     <row r="176" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G176" s="13"/>
+      <c r="G176" s="11"/>
     </row>
     <row r="177" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G177" s="13"/>
+      <c r="G177" s="11"/>
     </row>
     <row r="178" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G178" s="13"/>
+      <c r="G178" s="11"/>
     </row>
     <row r="179" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G179" s="13"/>
+      <c r="G179" s="11"/>
     </row>
     <row r="180" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G180" s="13"/>
+      <c r="G180" s="11"/>
     </row>
     <row r="181" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G181" s="13"/>
+      <c r="G181" s="11"/>
     </row>
     <row r="182" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G182" s="13"/>
+      <c r="G182" s="11"/>
     </row>
     <row r="183" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G183" s="13"/>
+      <c r="G183" s="11"/>
     </row>
     <row r="184" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G184" s="13"/>
+      <c r="G184" s="11"/>
     </row>
     <row r="185" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G185" s="13"/>
+      <c r="G185" s="11"/>
     </row>
     <row r="186" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G186" s="13"/>
+      <c r="G186" s="11"/>
     </row>
     <row r="187" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G187" s="13"/>
+      <c r="G187" s="11"/>
     </row>
     <row r="188" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G188" s="13"/>
+      <c r="G188" s="11"/>
     </row>
     <row r="189" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G189" s="13"/>
+      <c r="G189" s="11"/>
     </row>
     <row r="190" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G190" s="13"/>
+      <c r="G190" s="11"/>
     </row>
     <row r="191" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G191" s="13"/>
+      <c r="G191" s="11"/>
     </row>
     <row r="192" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G192" s="13"/>
+      <c r="G192" s="11"/>
     </row>
     <row r="193" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G193" s="13"/>
+      <c r="G193" s="11"/>
     </row>
     <row r="194" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G194" s="13"/>
+      <c r="G194" s="11"/>
     </row>
     <row r="195" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G195" s="13"/>
+      <c r="G195" s="11"/>
     </row>
     <row r="196" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G196" s="13"/>
+      <c r="G196" s="11"/>
     </row>
     <row r="197" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G197" s="13"/>
+      <c r="G197" s="11"/>
     </row>
     <row r="198" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G198" s="13"/>
+      <c r="G198" s="11"/>
     </row>
     <row r="199" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G199" s="13"/>
+      <c r="G199" s="11"/>
     </row>
     <row r="200" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G200" s="13"/>
+      <c r="G200" s="11"/>
     </row>
     <row r="201" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G201" s="13"/>
+      <c r="G201" s="11"/>
     </row>
     <row r="202" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G202" s="13"/>
+      <c r="G202" s="11"/>
     </row>
     <row r="203" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G203" s="13"/>
+      <c r="G203" s="11"/>
     </row>
     <row r="204" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G204" s="13"/>
+      <c r="G204" s="11"/>
     </row>
     <row r="205" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G205" s="13"/>
+      <c r="G205" s="11"/>
     </row>
     <row r="206" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G206" s="13"/>
+      <c r="G206" s="11"/>
     </row>
     <row r="207" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G207" s="13"/>
+      <c r="G207" s="11"/>
     </row>
     <row r="208" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G208" s="13"/>
+      <c r="G208" s="11"/>
     </row>
     <row r="209" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G209" s="13"/>
+      <c r="G209" s="11"/>
     </row>
     <row r="210" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G210" s="13"/>
+      <c r="G210" s="11"/>
     </row>
     <row r="211" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G211" s="13"/>
+      <c r="G211" s="11"/>
     </row>
     <row r="212" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G212" s="13"/>
+      <c r="G212" s="11"/>
     </row>
     <row r="213" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G213" s="13"/>
+      <c r="G213" s="11"/>
     </row>
     <row r="214" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G214" s="13"/>
+      <c r="G214" s="11"/>
     </row>
     <row r="215" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G215" s="13"/>
+      <c r="G215" s="11"/>
     </row>
     <row r="216" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G216" s="13"/>
+      <c r="G216" s="11"/>
     </row>
     <row r="217" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G217" s="13"/>
+      <c r="G217" s="11"/>
     </row>
     <row r="218" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G218" s="13"/>
+      <c r="G218" s="11"/>
     </row>
     <row r="219" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G219" s="13"/>
+      <c r="G219" s="11"/>
     </row>
     <row r="220" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G220" s="13"/>
+      <c r="G220" s="11"/>
     </row>
     <row r="221" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G221" s="13"/>
+      <c r="G221" s="11"/>
     </row>
     <row r="222" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G222" s="13"/>
+      <c r="G222" s="11"/>
     </row>
     <row r="223" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G223" s="13"/>
+      <c r="G223" s="11"/>
     </row>
     <row r="224" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G224" s="13"/>
+      <c r="G224" s="11"/>
     </row>
     <row r="225" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G225" s="13"/>
+      <c r="G225" s="11"/>
     </row>
     <row r="226" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G226" s="13"/>
+      <c r="G226" s="11"/>
     </row>
     <row r="227" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G227" s="13"/>
+      <c r="G227" s="11"/>
     </row>
     <row r="228" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G228" s="13"/>
+      <c r="G228" s="11"/>
     </row>
     <row r="229" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G229" s="13"/>
+      <c r="G229" s="11"/>
     </row>
     <row r="230" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G230" s="13"/>
+      <c r="G230" s="11"/>
     </row>
     <row r="231" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G231" s="13"/>
+      <c r="G231" s="11"/>
     </row>
     <row r="232" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G232" s="13"/>
+      <c r="G232" s="11"/>
     </row>
     <row r="233" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G233" s="13"/>
+      <c r="G233" s="11"/>
     </row>
     <row r="234" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G234" s="13"/>
+      <c r="G234" s="11"/>
     </row>
     <row r="235" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G235" s="13"/>
+      <c r="G235" s="11"/>
     </row>
     <row r="236" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G236" s="13"/>
+      <c r="G236" s="11"/>
     </row>
     <row r="237" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G237" s="13"/>
+      <c r="G237" s="11"/>
     </row>
     <row r="238" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G238" s="13"/>
+      <c r="G238" s="11"/>
     </row>
     <row r="239" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G239" s="13"/>
+      <c r="G239" s="11"/>
     </row>
     <row r="240" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G240" s="13"/>
+      <c r="G240" s="11"/>
     </row>
     <row r="241" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G241" s="13"/>
+      <c r="G241" s="11"/>
     </row>
     <row r="242" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G242" s="13"/>
+      <c r="G242" s="11"/>
     </row>
     <row r="243" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G243" s="13"/>
+      <c r="G243" s="11"/>
     </row>
     <row r="244" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G244" s="13"/>
+      <c r="G244" s="11"/>
     </row>
     <row r="245" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G245" s="13"/>
+      <c r="G245" s="11"/>
     </row>
     <row r="246" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G246" s="13"/>
+      <c r="G246" s="11"/>
     </row>
     <row r="247" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G247" s="13"/>
+      <c r="G247" s="11"/>
     </row>
     <row r="248" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G248" s="13"/>
+      <c r="G248" s="11"/>
     </row>
     <row r="249" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G249" s="13"/>
+      <c r="G249" s="11"/>
     </row>
     <row r="250" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G250" s="13"/>
+      <c r="G250" s="11"/>
     </row>
     <row r="251" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G251" s="13"/>
+      <c r="G251" s="11"/>
     </row>
     <row r="252" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G252" s="13"/>
+      <c r="G252" s="11"/>
     </row>
     <row r="253" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G253" s="13"/>
+      <c r="G253" s="11"/>
     </row>
     <row r="254" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G254" s="13"/>
+      <c r="G254" s="11"/>
     </row>
     <row r="255" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G255" s="13"/>
+      <c r="G255" s="11"/>
     </row>
     <row r="256" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G256" s="13"/>
+      <c r="G256" s="11"/>
     </row>
     <row r="257" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G257" s="13"/>
+      <c r="G257" s="11"/>
     </row>
     <row r="258" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G258" s="13"/>
+      <c r="G258" s="11"/>
     </row>
     <row r="259" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G259" s="13"/>
+      <c r="G259" s="11"/>
     </row>
     <row r="260" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G260" s="13"/>
+      <c r="G260" s="11"/>
     </row>
     <row r="261" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G261" s="13"/>
+      <c r="G261" s="11"/>
     </row>
     <row r="262" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G262" s="13"/>
+      <c r="G262" s="11"/>
     </row>
     <row r="263" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G263" s="13"/>
+      <c r="G263" s="11"/>
     </row>
     <row r="264" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G264" s="13"/>
+      <c r="G264" s="11"/>
     </row>
     <row r="265" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G265" s="13"/>
+      <c r="G265" s="11"/>
     </row>
     <row r="266" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G266" s="13"/>
+      <c r="G266" s="11"/>
     </row>
     <row r="267" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G267" s="13"/>
+      <c r="G267" s="11"/>
     </row>
     <row r="268" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G268" s="13"/>
+      <c r="G268" s="11"/>
     </row>
     <row r="269" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G269" s="13"/>
+      <c r="G269" s="11"/>
     </row>
     <row r="270" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G270" s="13"/>
+      <c r="G270" s="11"/>
     </row>
     <row r="271" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G271" s="13"/>
+      <c r="G271" s="11"/>
     </row>
     <row r="272" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G272" s="13"/>
+      <c r="G272" s="11"/>
     </row>
     <row r="273" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G273" s="13"/>
+      <c r="G273" s="11"/>
     </row>
     <row r="274" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G274" s="13"/>
+      <c r="G274" s="11"/>
     </row>
     <row r="275" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G275" s="13"/>
+      <c r="G275" s="11"/>
     </row>
     <row r="276" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G276" s="13"/>
+      <c r="G276" s="11"/>
     </row>
     <row r="277" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G277" s="13"/>
+      <c r="G277" s="11"/>
     </row>
     <row r="278" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G278" s="13"/>
+      <c r="G278" s="11"/>
     </row>
     <row r="279" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G279" s="13"/>
+      <c r="G279" s="11"/>
     </row>
     <row r="280" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G280" s="13"/>
+      <c r="G280" s="11"/>
     </row>
     <row r="281" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G281" s="13"/>
+      <c r="G281" s="11"/>
     </row>
     <row r="282" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G282" s="13"/>
+      <c r="G282" s="11"/>
     </row>
     <row r="283" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G283" s="13"/>
+      <c r="G283" s="11"/>
     </row>
     <row r="284" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G284" s="13"/>
+      <c r="G284" s="11"/>
     </row>
     <row r="285" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G285" s="13"/>
+      <c r="G285" s="11"/>
     </row>
     <row r="286" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G286" s="13"/>
+      <c r="G286" s="11"/>
     </row>
     <row r="287" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G287" s="13"/>
+      <c r="G287" s="11"/>
     </row>
     <row r="288" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G288" s="13"/>
+      <c r="G288" s="11"/>
     </row>
     <row r="289" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G289" s="13"/>
+      <c r="G289" s="11"/>
     </row>
     <row r="290" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G290" s="13"/>
+      <c r="G290" s="11"/>
     </row>
     <row r="291" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G291" s="13"/>
+      <c r="G291" s="11"/>
     </row>
     <row r="292" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G292" s="13"/>
+      <c r="G292" s="11"/>
     </row>
     <row r="293" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G293" s="13"/>
+      <c r="G293" s="11"/>
     </row>
     <row r="294" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G294" s="13"/>
+      <c r="G294" s="11"/>
     </row>
     <row r="295" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G295" s="13"/>
+      <c r="G295" s="11"/>
     </row>
     <row r="296" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G296" s="13"/>
+      <c r="G296" s="11"/>
     </row>
     <row r="297" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G297" s="13"/>
+      <c r="G297" s="11"/>
     </row>
     <row r="298" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G298" s="13"/>
+      <c r="G298" s="11"/>
     </row>
     <row r="299" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G299" s="13"/>
+      <c r="G299" s="11"/>
     </row>
     <row r="300" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G300" s="13"/>
+      <c r="G300" s="11"/>
     </row>
     <row r="301" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G301" s="13"/>
+      <c r="G301" s="11"/>
     </row>
     <row r="302" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G302" s="13"/>
+      <c r="G302" s="11"/>
     </row>
     <row r="303" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G303" s="13"/>
+      <c r="G303" s="11"/>
     </row>
     <row r="304" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G304" s="13"/>
+      <c r="G304" s="11"/>
     </row>
     <row r="305" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G305" s="13"/>
+      <c r="G305" s="11"/>
     </row>
     <row r="306" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G306" s="13"/>
+      <c r="G306" s="11"/>
     </row>
     <row r="307" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G307" s="13"/>
+      <c r="G307" s="11"/>
     </row>
     <row r="308" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G308" s="13"/>
+      <c r="G308" s="11"/>
     </row>
     <row r="309" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G309" s="13"/>
+      <c r="G309" s="11"/>
     </row>
     <row r="310" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G310" s="13"/>
+      <c r="G310" s="11"/>
     </row>
     <row r="311" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G311" s="13"/>
+      <c r="G311" s="11"/>
     </row>
     <row r="312" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G312" s="13"/>
+      <c r="G312" s="11"/>
     </row>
     <row r="313" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G313" s="13"/>
+      <c r="G313" s="11"/>
     </row>
     <row r="314" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G314" s="13"/>
+      <c r="G314" s="11"/>
     </row>
     <row r="315" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G315" s="13"/>
+      <c r="G315" s="11"/>
     </row>
     <row r="316" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G316" s="13"/>
+      <c r="G316" s="11"/>
     </row>
     <row r="317" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G317" s="13"/>
+      <c r="G317" s="11"/>
     </row>
     <row r="318" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G318" s="13"/>
+      <c r="G318" s="11"/>
     </row>
     <row r="319" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G319" s="13"/>
+      <c r="G319" s="11"/>
     </row>
     <row r="320" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G320" s="13"/>
+      <c r="G320" s="11"/>
     </row>
     <row r="321" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G321" s="13"/>
+      <c r="G321" s="11"/>
     </row>
     <row r="322" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G322" s="13"/>
+      <c r="G322" s="11"/>
     </row>
     <row r="323" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G323" s="13"/>
+      <c r="G323" s="11"/>
     </row>
     <row r="324" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G324" s="13"/>
+      <c r="G324" s="11"/>
     </row>
     <row r="325" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G325" s="13"/>
+      <c r="G325" s="11"/>
     </row>
     <row r="326" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G326" s="13"/>
+      <c r="G326" s="11"/>
     </row>
     <row r="327" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G327" s="13"/>
+      <c r="G327" s="11"/>
     </row>
     <row r="328" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G328" s="13"/>
+      <c r="G328" s="11"/>
     </row>
     <row r="329" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G329" s="13"/>
+      <c r="G329" s="11"/>
     </row>
     <row r="330" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G330" s="13"/>
+      <c r="G330" s="11"/>
     </row>
     <row r="331" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G331" s="13"/>
+      <c r="G331" s="11"/>
     </row>
     <row r="332" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G332" s="13"/>
+      <c r="G332" s="11"/>
     </row>
     <row r="333" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G333" s="13"/>
+      <c r="G333" s="11"/>
     </row>
     <row r="334" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G334" s="13"/>
+      <c r="G334" s="11"/>
     </row>
     <row r="335" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G335" s="13"/>
+      <c r="G335" s="11"/>
     </row>
     <row r="336" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G336" s="13"/>
+      <c r="G336" s="11"/>
     </row>
     <row r="337" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G337" s="13"/>
+      <c r="G337" s="11"/>
     </row>
     <row r="338" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G338" s="13"/>
+      <c r="G338" s="11"/>
     </row>
     <row r="339" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G339" s="13"/>
+      <c r="G339" s="11"/>
     </row>
     <row r="340" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G340" s="13"/>
+      <c r="G340" s="11"/>
     </row>
     <row r="341" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G341" s="13"/>
+      <c r="G341" s="11"/>
     </row>
     <row r="342" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G342" s="13"/>
+      <c r="G342" s="11"/>
     </row>
     <row r="343" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G343" s="13"/>
+      <c r="G343" s="11"/>
     </row>
     <row r="344" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G344" s="13"/>
+      <c r="G344" s="11"/>
     </row>
     <row r="345" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G345" s="13"/>
+      <c r="G345" s="11"/>
     </row>
     <row r="346" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G346" s="13"/>
+      <c r="G346" s="11"/>
     </row>
     <row r="347" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G347" s="13"/>
+      <c r="G347" s="11"/>
     </row>
     <row r="348" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G348" s="13"/>
+      <c r="G348" s="11"/>
     </row>
     <row r="349" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G349" s="13"/>
+      <c r="G349" s="11"/>
     </row>
     <row r="350" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G350" s="13"/>
+      <c r="G350" s="11"/>
     </row>
     <row r="351" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G351" s="13"/>
+      <c r="G351" s="11"/>
     </row>
     <row r="352" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G352" s="13"/>
+      <c r="G352" s="11"/>
     </row>
     <row r="353" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G353" s="13"/>
+      <c r="G353" s="11"/>
     </row>
     <row r="354" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G354" s="13"/>
+      <c r="G354" s="11"/>
     </row>
     <row r="355" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G355" s="13"/>
+      <c r="G355" s="11"/>
     </row>
     <row r="356" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G356" s="13"/>
+      <c r="G356" s="11"/>
     </row>
     <row r="357" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G357" s="13"/>
+      <c r="G357" s="11"/>
     </row>
     <row r="358" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G358" s="13"/>
+      <c r="G358" s="11"/>
     </row>
     <row r="359" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G359" s="13"/>
+      <c r="G359" s="11"/>
     </row>
     <row r="360" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G360" s="13"/>
+      <c r="G360" s="11"/>
     </row>
     <row r="361" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G361" s="13"/>
+      <c r="G361" s="11"/>
     </row>
     <row r="362" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G362" s="13"/>
+      <c r="G362" s="11"/>
     </row>
     <row r="363" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G363" s="13"/>
+      <c r="G363" s="11"/>
     </row>
     <row r="364" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G364" s="13"/>
+      <c r="G364" s="11"/>
     </row>
     <row r="365" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G365" s="13"/>
+      <c r="G365" s="11"/>
     </row>
     <row r="366" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G366" s="13"/>
+      <c r="G366" s="11"/>
     </row>
     <row r="367" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G367" s="13"/>
+      <c r="G367" s="11"/>
     </row>
     <row r="368" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G368" s="13"/>
+      <c r="G368" s="11"/>
     </row>
     <row r="369" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G369" s="13"/>
+      <c r="G369" s="11"/>
     </row>
     <row r="370" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G370" s="13"/>
+      <c r="G370" s="11"/>
     </row>
     <row r="371" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G371" s="13"/>
+      <c r="G371" s="11"/>
     </row>
     <row r="372" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G372" s="13"/>
+      <c r="G372" s="11"/>
     </row>
     <row r="373" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G373" s="13"/>
+      <c r="G373" s="11"/>
     </row>
     <row r="374" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G374" s="13"/>
+      <c r="G374" s="11"/>
     </row>
     <row r="375" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G375" s="13"/>
+      <c r="G375" s="11"/>
     </row>
     <row r="376" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G376" s="13"/>
+      <c r="G376" s="11"/>
     </row>
     <row r="377" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G377" s="13"/>
+      <c r="G377" s="11"/>
     </row>
     <row r="378" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G378" s="13"/>
+      <c r="G378" s="11"/>
     </row>
     <row r="379" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G379" s="13"/>
+      <c r="G379" s="11"/>
     </row>
     <row r="380" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G380" s="13"/>
+      <c r="G380" s="11"/>
     </row>
     <row r="381" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G381" s="13"/>
+      <c r="G381" s="11"/>
     </row>
     <row r="382" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G382" s="13"/>
+      <c r="G382" s="11"/>
     </row>
     <row r="383" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G383" s="13"/>
+      <c r="G383" s="11"/>
     </row>
     <row r="384" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G384" s="13"/>
+      <c r="G384" s="11"/>
     </row>
     <row r="385" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G385" s="13"/>
+      <c r="G385" s="11"/>
     </row>
     <row r="386" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G386" s="13"/>
+      <c r="G386" s="11"/>
     </row>
     <row r="387" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G387" s="13"/>
+      <c r="G387" s="11"/>
     </row>
     <row r="388" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G388" s="13"/>
+      <c r="G388" s="11"/>
     </row>
     <row r="389" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G389" s="13"/>
+      <c r="G389" s="11"/>
     </row>
     <row r="390" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G390" s="13"/>
+      <c r="G390" s="11"/>
     </row>
     <row r="391" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G391" s="13"/>
+      <c r="G391" s="11"/>
     </row>
     <row r="392" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G392" s="13"/>
+      <c r="G392" s="11"/>
     </row>
     <row r="393" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G393" s="13"/>
+      <c r="G393" s="11"/>
     </row>
     <row r="394" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G394" s="13"/>
+      <c r="G394" s="11"/>
     </row>
     <row r="395" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G395" s="13"/>
+      <c r="G395" s="11"/>
     </row>
     <row r="396" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G396" s="13"/>
+      <c r="G396" s="11"/>
     </row>
     <row r="397" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G397" s="13"/>
+      <c r="G397" s="11"/>
     </row>
     <row r="398" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G398" s="13"/>
+      <c r="G398" s="11"/>
     </row>
     <row r="399" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G399" s="13"/>
+      <c r="G399" s="11"/>
     </row>
     <row r="400" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G400" s="13"/>
+      <c r="G400" s="11"/>
     </row>
     <row r="401" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G401" s="13"/>
+      <c r="G401" s="11"/>
     </row>
     <row r="402" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G402" s="13"/>
+      <c r="G402" s="11"/>
     </row>
     <row r="403" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G403" s="13"/>
+      <c r="G403" s="11"/>
     </row>
     <row r="404" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G404" s="13"/>
+      <c r="G404" s="11"/>
     </row>
     <row r="405" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G405" s="13"/>
+      <c r="G405" s="11"/>
     </row>
     <row r="406" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G406" s="13"/>
+      <c r="G406" s="11"/>
     </row>
     <row r="407" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G407" s="13"/>
+      <c r="G407" s="11"/>
     </row>
     <row r="408" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G408" s="13"/>
+      <c r="G408" s="11"/>
     </row>
     <row r="409" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G409" s="13"/>
+      <c r="G409" s="11"/>
     </row>
     <row r="410" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G410" s="13"/>
+      <c r="G410" s="11"/>
     </row>
     <row r="411" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G411" s="13"/>
+      <c r="G411" s="11"/>
     </row>
     <row r="412" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G412" s="13"/>
+      <c r="G412" s="11"/>
     </row>
     <row r="413" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G413" s="13"/>
+      <c r="G413" s="11"/>
     </row>
     <row r="414" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G414" s="13"/>
+      <c r="G414" s="11"/>
     </row>
     <row r="415" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G415" s="13"/>
+      <c r="G415" s="11"/>
     </row>
     <row r="416" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G416" s="13"/>
+      <c r="G416" s="11"/>
     </row>
     <row r="417" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G417" s="13"/>
+      <c r="G417" s="11"/>
     </row>
     <row r="418" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G418" s="13"/>
+      <c r="G418" s="11"/>
     </row>
     <row r="419" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G419" s="13"/>
+      <c r="G419" s="11"/>
     </row>
     <row r="420" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G420" s="13"/>
+      <c r="G420" s="11"/>
     </row>
     <row r="421" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G421" s="13"/>
+      <c r="G421" s="11"/>
     </row>
     <row r="422" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G422" s="13"/>
+      <c r="G422" s="11"/>
     </row>
     <row r="423" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G423" s="13"/>
+      <c r="G423" s="11"/>
     </row>
     <row r="424" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G424" s="13"/>
+      <c r="G424" s="11"/>
     </row>
     <row r="425" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G425" s="13"/>
+      <c r="G425" s="11"/>
     </row>
     <row r="426" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G426" s="13"/>
+      <c r="G426" s="11"/>
     </row>
     <row r="427" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G427" s="13"/>
+      <c r="G427" s="11"/>
     </row>
     <row r="428" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G428" s="13"/>
+      <c r="G428" s="11"/>
     </row>
     <row r="429" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G429" s="13"/>
+      <c r="G429" s="11"/>
     </row>
     <row r="430" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G430" s="13"/>
+      <c r="G430" s="11"/>
     </row>
     <row r="431" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G431" s="13"/>
+      <c r="G431" s="11"/>
     </row>
     <row r="432" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G432" s="13"/>
+      <c r="G432" s="11"/>
     </row>
     <row r="433" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G433" s="13"/>
+      <c r="G433" s="11"/>
     </row>
     <row r="434" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G434" s="13"/>
+      <c r="G434" s="11"/>
     </row>
     <row r="435" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G435" s="13"/>
+      <c r="G435" s="11"/>
     </row>
     <row r="436" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G436" s="13"/>
+      <c r="G436" s="11"/>
     </row>
     <row r="437" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G437" s="13"/>
+      <c r="G437" s="11"/>
     </row>
     <row r="438" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G438" s="13"/>
+      <c r="G438" s="11"/>
     </row>
     <row r="439" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G439" s="13"/>
+      <c r="G439" s="11"/>
     </row>
     <row r="440" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G440" s="13"/>
+      <c r="G440" s="11"/>
     </row>
     <row r="441" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G441" s="13"/>
+      <c r="G441" s="11"/>
     </row>
     <row r="442" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G442" s="13"/>
+      <c r="G442" s="11"/>
     </row>
     <row r="443" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G443" s="13"/>
+      <c r="G443" s="11"/>
     </row>
     <row r="444" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G444" s="13"/>
+      <c r="G444" s="11"/>
     </row>
     <row r="445" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G445" s="13"/>
+      <c r="G445" s="11"/>
     </row>
     <row r="446" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G446" s="13"/>
+      <c r="G446" s="11"/>
     </row>
     <row r="447" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G447" s="13"/>
+      <c r="G447" s="11"/>
     </row>
     <row r="448" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G448" s="13"/>
+      <c r="G448" s="11"/>
     </row>
     <row r="449" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G449" s="13"/>
+      <c r="G449" s="11"/>
     </row>
     <row r="450" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G450" s="13"/>
+      <c r="G450" s="11"/>
     </row>
     <row r="451" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G451" s="13"/>
+      <c r="G451" s="11"/>
     </row>
     <row r="452" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G452" s="13"/>
+      <c r="G452" s="11"/>
     </row>
     <row r="453" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G453" s="13"/>
+      <c r="G453" s="11"/>
     </row>
     <row r="454" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G454" s="13"/>
+      <c r="G454" s="11"/>
     </row>
     <row r="455" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G455" s="13"/>
+      <c r="G455" s="11"/>
     </row>
     <row r="456" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G456" s="13"/>
+      <c r="G456" s="11"/>
     </row>
     <row r="457" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G457" s="13"/>
+      <c r="G457" s="11"/>
     </row>
     <row r="458" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G458" s="13"/>
+      <c r="G458" s="11"/>
     </row>
     <row r="459" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G459" s="13"/>
+      <c r="G459" s="11"/>
     </row>
     <row r="460" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G460" s="13"/>
+      <c r="G460" s="11"/>
     </row>
     <row r="461" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G461" s="13"/>
+      <c r="G461" s="11"/>
     </row>
     <row r="462" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G462" s="13"/>
+      <c r="G462" s="11"/>
     </row>
     <row r="463" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G463" s="13"/>
+      <c r="G463" s="11"/>
     </row>
     <row r="464" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G464" s="13"/>
+      <c r="G464" s="11"/>
     </row>
     <row r="465" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G465" s="13"/>
+      <c r="G465" s="11"/>
     </row>
     <row r="466" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G466" s="13"/>
+      <c r="G466" s="11"/>
     </row>
     <row r="467" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G467" s="13"/>
+      <c r="G467" s="11"/>
     </row>
     <row r="468" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G468" s="13"/>
+      <c r="G468" s="11"/>
     </row>
     <row r="469" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G469" s="13"/>
+      <c r="G469" s="11"/>
     </row>
     <row r="470" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G470" s="13"/>
+      <c r="G470" s="11"/>
     </row>
     <row r="471" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G471" s="13"/>
+      <c r="G471" s="11"/>
     </row>
     <row r="472" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G472" s="13"/>
+      <c r="G472" s="11"/>
     </row>
     <row r="473" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G473" s="13"/>
+      <c r="G473" s="11"/>
     </row>
     <row r="474" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G474" s="13"/>
+      <c r="G474" s="11"/>
     </row>
     <row r="475" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G475" s="13"/>
+      <c r="G475" s="11"/>
     </row>
     <row r="476" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G476" s="13"/>
+      <c r="G476" s="11"/>
     </row>
     <row r="477" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G477" s="13"/>
+      <c r="G477" s="11"/>
     </row>
     <row r="478" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G478" s="13"/>
+      <c r="G478" s="11"/>
     </row>
     <row r="479" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G479" s="13"/>
+      <c r="G479" s="11"/>
     </row>
     <row r="480" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G480" s="13"/>
+      <c r="G480" s="11"/>
     </row>
     <row r="481" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G481" s="13"/>
+      <c r="G481" s="11"/>
     </row>
     <row r="482" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G482" s="13"/>
+      <c r="G482" s="11"/>
     </row>
     <row r="483" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G483" s="13"/>
+      <c r="G483" s="11"/>
     </row>
     <row r="484" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G484" s="13"/>
+      <c r="G484" s="11"/>
     </row>
     <row r="485" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G485" s="13"/>
+      <c r="G485" s="11"/>
     </row>
     <row r="486" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G486" s="13"/>
+      <c r="G486" s="11"/>
     </row>
     <row r="487" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G487" s="13"/>
+      <c r="G487" s="11"/>
     </row>
     <row r="488" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G488" s="13"/>
+      <c r="G488" s="11"/>
     </row>
     <row r="489" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G489" s="13"/>
+      <c r="G489" s="11"/>
     </row>
     <row r="490" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G490" s="13"/>
+      <c r="G490" s="11"/>
     </row>
     <row r="491" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G491" s="13"/>
+      <c r="G491" s="11"/>
     </row>
     <row r="492" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G492" s="13"/>
+      <c r="G492" s="11"/>
     </row>
     <row r="493" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G493" s="13"/>
+      <c r="G493" s="11"/>
     </row>
     <row r="494" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G494" s="13"/>
+      <c r="G494" s="11"/>
     </row>
     <row r="495" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G495" s="13"/>
+      <c r="G495" s="11"/>
     </row>
     <row r="496" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G496" s="13"/>
+      <c r="G496" s="11"/>
     </row>
     <row r="497" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G497" s="13"/>
+      <c r="G497" s="11"/>
     </row>
     <row r="498" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G498" s="13"/>
+      <c r="G498" s="11"/>
     </row>
     <row r="499" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G499" s="13"/>
+      <c r="G499" s="11"/>
     </row>
     <row r="500" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G500" s="13"/>
+      <c r="G500" s="11"/>
     </row>
     <row r="501" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G501" s="13"/>
+      <c r="G501" s="11"/>
     </row>
     <row r="502" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G502" s="13"/>
+      <c r="G502" s="11"/>
     </row>
     <row r="503" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G503" s="13"/>
+      <c r="G503" s="11"/>
     </row>
     <row r="504" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G504" s="13"/>
+      <c r="G504" s="11"/>
     </row>
     <row r="505" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G505" s="13"/>
+      <c r="G505" s="11"/>
     </row>
     <row r="506" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G506" s="13"/>
+      <c r="G506" s="11"/>
     </row>
     <row r="507" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G507" s="13"/>
+      <c r="G507" s="11"/>
     </row>
     <row r="508" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G508" s="13"/>
+      <c r="G508" s="11"/>
     </row>
     <row r="509" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G509" s="13"/>
+      <c r="G509" s="11"/>
     </row>
     <row r="510" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G510" s="13"/>
+      <c r="G510" s="11"/>
     </row>
     <row r="511" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G511" s="13"/>
+      <c r="G511" s="11"/>
     </row>
     <row r="512" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G512" s="13"/>
+      <c r="G512" s="11"/>
     </row>
     <row r="513" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G513" s="13"/>
+      <c r="G513" s="11"/>
     </row>
     <row r="514" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G514" s="13"/>
+      <c r="G514" s="11"/>
     </row>
     <row r="515" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G515" s="13"/>
+      <c r="G515" s="11"/>
     </row>
     <row r="516" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G516" s="13"/>
+      <c r="G516" s="11"/>
     </row>
     <row r="517" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G517" s="13"/>
+      <c r="G517" s="11"/>
     </row>
     <row r="518" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G518" s="13"/>
+      <c r="G518" s="11"/>
     </row>
     <row r="519" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G519" s="13"/>
+      <c r="G519" s="11"/>
     </row>
     <row r="520" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G520" s="13"/>
+      <c r="G520" s="11"/>
     </row>
     <row r="521" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G521" s="13"/>
+      <c r="G521" s="11"/>
     </row>
     <row r="522" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G522" s="13"/>
+      <c r="G522" s="11"/>
     </row>
     <row r="523" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G523" s="13"/>
+      <c r="G523" s="11"/>
     </row>
     <row r="524" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G524" s="13"/>
+      <c r="G524" s="11"/>
     </row>
     <row r="525" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G525" s="13"/>
+      <c r="G525" s="11"/>
     </row>
     <row r="526" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G526" s="13"/>
+      <c r="G526" s="11"/>
     </row>
     <row r="527" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G527" s="13"/>
+      <c r="G527" s="11"/>
     </row>
     <row r="528" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G528" s="13"/>
+      <c r="G528" s="11"/>
     </row>
     <row r="529" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G529" s="13"/>
+      <c r="G529" s="11"/>
     </row>
     <row r="530" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G530" s="13"/>
+      <c r="G530" s="11"/>
     </row>
     <row r="531" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G531" s="13"/>
+      <c r="G531" s="11"/>
     </row>
     <row r="532" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G532" s="13"/>
+      <c r="G532" s="11"/>
     </row>
     <row r="533" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G533" s="13"/>
+      <c r="G533" s="11"/>
     </row>
     <row r="534" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G534" s="13"/>
+      <c r="G534" s="11"/>
     </row>
     <row r="535" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G535" s="13"/>
+      <c r="G535" s="11"/>
     </row>
     <row r="536" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G536" s="13"/>
+      <c r="G536" s="11"/>
     </row>
     <row r="537" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G537" s="13"/>
+      <c r="G537" s="11"/>
     </row>
     <row r="538" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G538" s="13"/>
+      <c r="G538" s="11"/>
     </row>
     <row r="539" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G539" s="13"/>
+      <c r="G539" s="11"/>
     </row>
     <row r="540" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G540" s="13"/>
+      <c r="G540" s="11"/>
     </row>
     <row r="541" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G541" s="13"/>
+      <c r="G541" s="11"/>
     </row>
     <row r="542" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G542" s="13"/>
+      <c r="G542" s="11"/>
     </row>
     <row r="543" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G543" s="13"/>
+      <c r="G543" s="11"/>
     </row>
     <row r="544" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G544" s="13"/>
+      <c r="G544" s="11"/>
     </row>
     <row r="545" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G545" s="13"/>
+      <c r="G545" s="11"/>
     </row>
     <row r="546" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G546" s="13"/>
+      <c r="G546" s="11"/>
     </row>
     <row r="547" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G547" s="13"/>
+      <c r="G547" s="11"/>
     </row>
     <row r="548" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G548" s="13"/>
+      <c r="G548" s="11"/>
     </row>
     <row r="549" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G549" s="13"/>
+      <c r="G549" s="11"/>
     </row>
     <row r="550" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G550" s="13"/>
+      <c r="G550" s="11"/>
     </row>
     <row r="551" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G551" s="13"/>
+      <c r="G551" s="11"/>
     </row>
     <row r="552" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G552" s="13"/>
+      <c r="G552" s="11"/>
     </row>
     <row r="553" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G553" s="13"/>
+      <c r="G553" s="11"/>
     </row>
     <row r="554" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G554" s="13"/>
+      <c r="G554" s="11"/>
     </row>
     <row r="555" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G555" s="13"/>
+      <c r="G555" s="11"/>
     </row>
     <row r="556" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G556" s="13"/>
+      <c r="G556" s="11"/>
     </row>
     <row r="557" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G557" s="13"/>
+      <c r="G557" s="11"/>
     </row>
     <row r="558" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G558" s="13"/>
+      <c r="G558" s="11"/>
     </row>
     <row r="559" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G559" s="13"/>
+      <c r="G559" s="11"/>
     </row>
     <row r="560" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G560" s="13"/>
+      <c r="G560" s="11"/>
     </row>
     <row r="561" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G561" s="13"/>
+      <c r="G561" s="11"/>
     </row>
     <row r="562" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G562" s="13"/>
+      <c r="G562" s="11"/>
     </row>
     <row r="563" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G563" s="13"/>
+      <c r="G563" s="11"/>
     </row>
     <row r="564" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G564" s="13"/>
+      <c r="G564" s="11"/>
     </row>
     <row r="565" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G565" s="13"/>
+      <c r="G565" s="11"/>
     </row>
     <row r="566" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G566" s="13"/>
+      <c r="G566" s="11"/>
     </row>
     <row r="567" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G567" s="13"/>
+      <c r="G567" s="11"/>
     </row>
     <row r="568" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G568" s="13"/>
+      <c r="G568" s="11"/>
     </row>
     <row r="569" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G569" s="13"/>
+      <c r="G569" s="11"/>
     </row>
     <row r="570" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G570" s="13"/>
+      <c r="G570" s="11"/>
     </row>
     <row r="571" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G571" s="13"/>
+      <c r="G571" s="11"/>
     </row>
     <row r="572" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G572" s="13"/>
+      <c r="G572" s="11"/>
     </row>
     <row r="573" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G573" s="13"/>
+      <c r="G573" s="11"/>
     </row>
     <row r="574" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G574" s="13"/>
+      <c r="G574" s="11"/>
     </row>
     <row r="575" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G575" s="13"/>
+      <c r="G575" s="11"/>
     </row>
     <row r="576" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G576" s="13"/>
+      <c r="G576" s="11"/>
     </row>
     <row r="577" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G577" s="13"/>
+      <c r="G577" s="11"/>
     </row>
     <row r="578" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G578" s="13"/>
+      <c r="G578" s="11"/>
     </row>
     <row r="579" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G579" s="13"/>
+      <c r="G579" s="11"/>
     </row>
     <row r="580" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G580" s="13"/>
+      <c r="G580" s="11"/>
     </row>
     <row r="581" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G581" s="13"/>
+      <c r="G581" s="11"/>
     </row>
     <row r="582" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G582" s="13"/>
+      <c r="G582" s="11"/>
     </row>
     <row r="583" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G583" s="13"/>
+      <c r="G583" s="11"/>
     </row>
     <row r="584" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G584" s="13"/>
+      <c r="G584" s="11"/>
     </row>
     <row r="585" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G585" s="13"/>
+      <c r="G585" s="11"/>
     </row>
     <row r="586" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G586" s="13"/>
+      <c r="G586" s="11"/>
     </row>
     <row r="587" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G587" s="13"/>
+      <c r="G587" s="11"/>
     </row>
     <row r="588" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G588" s="13"/>
+      <c r="G588" s="11"/>
     </row>
     <row r="589" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G589" s="13"/>
+      <c r="G589" s="11"/>
     </row>
     <row r="590" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G590" s="13"/>
+      <c r="G590" s="11"/>
     </row>
     <row r="591" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G591" s="13"/>
+      <c r="G591" s="11"/>
     </row>
     <row r="592" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G592" s="13"/>
+      <c r="G592" s="11"/>
     </row>
     <row r="593" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G593" s="13"/>
+      <c r="G593" s="11"/>
     </row>
     <row r="594" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G594" s="13"/>
+      <c r="G594" s="11"/>
     </row>
     <row r="595" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G595" s="13"/>
+      <c r="G595" s="11"/>
     </row>
     <row r="596" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G596" s="13"/>
+      <c r="G596" s="11"/>
     </row>
     <row r="597" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G597" s="13"/>
+      <c r="G597" s="11"/>
     </row>
     <row r="598" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G598" s="13"/>
+      <c r="G598" s="11"/>
     </row>
     <row r="599" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G599" s="13"/>
+      <c r="G599" s="11"/>
     </row>
     <row r="600" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G600" s="13"/>
+      <c r="G600" s="11"/>
     </row>
     <row r="601" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G601" s="13"/>
+      <c r="G601" s="11"/>
     </row>
     <row r="602" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G602" s="13"/>
+      <c r="G602" s="11"/>
     </row>
     <row r="603" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G603" s="13"/>
+      <c r="G603" s="11"/>
     </row>
     <row r="604" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G604" s="13"/>
+      <c r="G604" s="11"/>
     </row>
     <row r="605" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G605" s="13"/>
+      <c r="G605" s="11"/>
     </row>
     <row r="606" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G606" s="13"/>
+      <c r="G606" s="11"/>
     </row>
     <row r="607" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G607" s="13"/>
+      <c r="G607" s="11"/>
     </row>
     <row r="608" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G608" s="13"/>
+      <c r="G608" s="11"/>
     </row>
     <row r="609" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G609" s="13"/>
+      <c r="G609" s="11"/>
     </row>
     <row r="610" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G610" s="13"/>
+      <c r="G610" s="11"/>
     </row>
     <row r="611" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G611" s="13"/>
+      <c r="G611" s="11"/>
     </row>
     <row r="612" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G612" s="13"/>
+      <c r="G612" s="11"/>
     </row>
     <row r="613" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G613" s="13"/>
+      <c r="G613" s="11"/>
     </row>
     <row r="614" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G614" s="13"/>
+      <c r="G614" s="11"/>
     </row>
     <row r="615" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G615" s="13"/>
+      <c r="G615" s="11"/>
     </row>
     <row r="616" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G616" s="13"/>
+      <c r="G616" s="11"/>
     </row>
     <row r="617" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G617" s="13"/>
+      <c r="G617" s="11"/>
     </row>
     <row r="618" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G618" s="13"/>
+      <c r="G618" s="11"/>
     </row>
     <row r="619" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G619" s="13"/>
+      <c r="G619" s="11"/>
     </row>
     <row r="620" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G620" s="13"/>
+      <c r="G620" s="11"/>
     </row>
     <row r="621" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G621" s="13"/>
+      <c r="G621" s="11"/>
     </row>
     <row r="622" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G622" s="13"/>
+      <c r="G622" s="11"/>
     </row>
     <row r="623" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G623" s="13"/>
+      <c r="G623" s="11"/>
     </row>
     <row r="624" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G624" s="13"/>
+      <c r="G624" s="11"/>
     </row>
     <row r="625" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G625" s="13"/>
+      <c r="G625" s="11"/>
     </row>
     <row r="626" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G626" s="13"/>
+      <c r="G626" s="11"/>
     </row>
     <row r="627" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G627" s="13"/>
+      <c r="G627" s="11"/>
     </row>
     <row r="628" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G628" s="13"/>
+      <c r="G628" s="11"/>
     </row>
     <row r="629" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G629" s="13"/>
+      <c r="G629" s="11"/>
     </row>
     <row r="630" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G630" s="13"/>
+      <c r="G630" s="11"/>
     </row>
     <row r="631" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G631" s="13"/>
+      <c r="G631" s="11"/>
     </row>
     <row r="632" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G632" s="13"/>
+      <c r="G632" s="11"/>
     </row>
     <row r="633" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G633" s="13"/>
+      <c r="G633" s="11"/>
     </row>
     <row r="634" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G634" s="13"/>
+      <c r="G634" s="11"/>
     </row>
     <row r="635" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G635" s="13"/>
+      <c r="G635" s="11"/>
     </row>
     <row r="636" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G636" s="13"/>
+      <c r="G636" s="11"/>
     </row>
     <row r="637" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G637" s="13"/>
+      <c r="G637" s="11"/>
     </row>
     <row r="638" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G638" s="13"/>
+      <c r="G638" s="11"/>
     </row>
     <row r="639" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G639" s="13"/>
+      <c r="G639" s="11"/>
     </row>
     <row r="640" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G640" s="13"/>
+      <c r="G640" s="11"/>
     </row>
     <row r="641" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G641" s="13"/>
+      <c r="G641" s="11"/>
     </row>
     <row r="642" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G642" s="13"/>
+      <c r="G642" s="11"/>
     </row>
     <row r="643" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G643" s="13"/>
+      <c r="G643" s="11"/>
     </row>
     <row r="644" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G644" s="13"/>
+      <c r="G644" s="11"/>
     </row>
     <row r="645" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G645" s="13"/>
+      <c r="G645" s="11"/>
     </row>
     <row r="646" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G646" s="13"/>
+      <c r="G646" s="11"/>
     </row>
     <row r="647" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G647" s="13"/>
+      <c r="G647" s="11"/>
     </row>
     <row r="648" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G648" s="13"/>
+      <c r="G648" s="11"/>
     </row>
     <row r="649" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G649" s="13"/>
+      <c r="G649" s="11"/>
     </row>
     <row r="650" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G650" s="13"/>
+      <c r="G650" s="11"/>
     </row>
     <row r="651" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G651" s="13"/>
+      <c r="G651" s="11"/>
     </row>
     <row r="652" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G652" s="13"/>
+      <c r="G652" s="11"/>
     </row>
     <row r="653" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G653" s="13"/>
+      <c r="G653" s="11"/>
     </row>
     <row r="654" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G654" s="13"/>
+      <c r="G654" s="11"/>
     </row>
     <row r="655" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G655" s="13"/>
+      <c r="G655" s="11"/>
     </row>
     <row r="656" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G656" s="13"/>
+      <c r="G656" s="11"/>
     </row>
     <row r="657" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G657" s="13"/>
+      <c r="G657" s="11"/>
     </row>
     <row r="658" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G658" s="13"/>
+      <c r="G658" s="11"/>
     </row>
     <row r="659" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G659" s="13"/>
+      <c r="G659" s="11"/>
     </row>
     <row r="660" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G660" s="13"/>
+      <c r="G660" s="11"/>
     </row>
     <row r="661" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G661" s="13"/>
+      <c r="G661" s="11"/>
     </row>
     <row r="662" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G662" s="13"/>
+      <c r="G662" s="11"/>
     </row>
     <row r="663" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G663" s="13"/>
+      <c r="G663" s="11"/>
     </row>
     <row r="664" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G664" s="13"/>
+      <c r="G664" s="11"/>
     </row>
     <row r="665" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G665" s="13"/>
+      <c r="G665" s="11"/>
     </row>
     <row r="666" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G666" s="13"/>
+      <c r="G666" s="11"/>
     </row>
     <row r="667" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G667" s="13"/>
+      <c r="G667" s="11"/>
     </row>
     <row r="668" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G668" s="13"/>
+      <c r="G668" s="11"/>
     </row>
     <row r="669" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G669" s="13"/>
+      <c r="G669" s="11"/>
     </row>
     <row r="670" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G670" s="13"/>
+      <c r="G670" s="11"/>
     </row>
     <row r="671" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G671" s="13"/>
+      <c r="G671" s="11"/>
     </row>
     <row r="672" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G672" s="13"/>
+      <c r="G672" s="11"/>
     </row>
     <row r="673" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G673" s="13"/>
+      <c r="G673" s="11"/>
     </row>
     <row r="674" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G674" s="13"/>
+      <c r="G674" s="11"/>
     </row>
     <row r="675" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G675" s="13"/>
+      <c r="G675" s="11"/>
     </row>
     <row r="676" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G676" s="13"/>
+      <c r="G676" s="11"/>
     </row>
     <row r="677" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G677" s="13"/>
+      <c r="G677" s="11"/>
     </row>
     <row r="678" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G678" s="13"/>
+      <c r="G678" s="11"/>
     </row>
     <row r="679" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G679" s="13"/>
+      <c r="G679" s="11"/>
     </row>
     <row r="680" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G680" s="13"/>
+      <c r="G680" s="11"/>
     </row>
     <row r="681" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G681" s="13"/>
+      <c r="G681" s="11"/>
     </row>
     <row r="682" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G682" s="13"/>
+      <c r="G682" s="11"/>
     </row>
     <row r="683" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G683" s="13"/>
+      <c r="G683" s="11"/>
     </row>
     <row r="684" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G684" s="13"/>
+      <c r="G684" s="11"/>
     </row>
     <row r="685" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G685" s="13"/>
+      <c r="G685" s="11"/>
     </row>
     <row r="686" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G686" s="13"/>
+      <c r="G686" s="11"/>
     </row>
     <row r="687" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G687" s="13"/>
+      <c r="G687" s="11"/>
     </row>
     <row r="688" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G688" s="13"/>
+      <c r="G688" s="11"/>
     </row>
     <row r="689" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G689" s="13"/>
+      <c r="G689" s="11"/>
     </row>
     <row r="690" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G690" s="13"/>
+      <c r="G690" s="11"/>
     </row>
     <row r="691" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G691" s="13"/>
+      <c r="G691" s="11"/>
     </row>
     <row r="692" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G692" s="13"/>
+      <c r="G692" s="11"/>
     </row>
     <row r="693" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G693" s="13"/>
+      <c r="G693" s="11"/>
     </row>
     <row r="694" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G694" s="13"/>
+      <c r="G694" s="11"/>
     </row>
     <row r="695" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G695" s="13"/>
+      <c r="G695" s="11"/>
     </row>
     <row r="696" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G696" s="13"/>
+      <c r="G696" s="11"/>
     </row>
     <row r="697" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G697" s="13"/>
+      <c r="G697" s="11"/>
     </row>
     <row r="698" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G698" s="13"/>
+      <c r="G698" s="11"/>
     </row>
     <row r="699" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G699" s="13"/>
+      <c r="G699" s="11"/>
     </row>
     <row r="700" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G700" s="13"/>
+      <c r="G700" s="11"/>
     </row>
     <row r="701" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G701" s="13"/>
+      <c r="G701" s="11"/>
     </row>
     <row r="702" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G702" s="13"/>
+      <c r="G702" s="11"/>
     </row>
     <row r="703" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G703" s="13"/>
+      <c r="G703" s="11"/>
     </row>
     <row r="704" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G704" s="13"/>
+      <c r="G704" s="11"/>
     </row>
     <row r="705" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G705" s="13"/>
+      <c r="G705" s="11"/>
     </row>
     <row r="706" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G706" s="13"/>
+      <c r="G706" s="11"/>
     </row>
     <row r="707" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G707" s="13"/>
+      <c r="G707" s="11"/>
     </row>
     <row r="708" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G708" s="13"/>
+      <c r="G708" s="11"/>
     </row>
     <row r="709" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G709" s="13"/>
+      <c r="G709" s="11"/>
     </row>
     <row r="710" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G710" s="13"/>
+      <c r="G710" s="11"/>
     </row>
     <row r="711" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G711" s="13"/>
+      <c r="G711" s="11"/>
     </row>
     <row r="712" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G712" s="13"/>
+      <c r="G712" s="11"/>
     </row>
     <row r="713" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G713" s="13"/>
+      <c r="G713" s="11"/>
     </row>
     <row r="714" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G714" s="13"/>
+      <c r="G714" s="11"/>
     </row>
     <row r="715" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G715" s="13"/>
+      <c r="G715" s="11"/>
     </row>
     <row r="716" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G716" s="13"/>
+      <c r="G716" s="11"/>
     </row>
     <row r="717" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G717" s="13"/>
+      <c r="G717" s="11"/>
     </row>
     <row r="718" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G718" s="13"/>
+      <c r="G718" s="11"/>
     </row>
     <row r="719" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G719" s="13"/>
+      <c r="G719" s="11"/>
     </row>
     <row r="720" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G720" s="13"/>
+      <c r="G720" s="11"/>
     </row>
     <row r="721" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G721" s="13"/>
+      <c r="G721" s="11"/>
     </row>
     <row r="722" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G722" s="13"/>
+      <c r="G722" s="11"/>
     </row>
     <row r="723" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G723" s="13"/>
+      <c r="G723" s="11"/>
     </row>
     <row r="724" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G724" s="13"/>
+      <c r="G724" s="11"/>
     </row>
     <row r="725" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G725" s="13"/>
+      <c r="G725" s="11"/>
     </row>
     <row r="726" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G726" s="13"/>
+      <c r="G726" s="11"/>
     </row>
     <row r="727" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G727" s="13"/>
+      <c r="G727" s="11"/>
     </row>
     <row r="728" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G728" s="13"/>
+      <c r="G728" s="11"/>
     </row>
     <row r="729" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G729" s="13"/>
+      <c r="G729" s="11"/>
     </row>
     <row r="730" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G730" s="13"/>
+      <c r="G730" s="11"/>
     </row>
     <row r="731" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G731" s="13"/>
+      <c r="G731" s="11"/>
     </row>
     <row r="732" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G732" s="13"/>
+      <c r="G732" s="11"/>
     </row>
     <row r="733" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G733" s="13"/>
+      <c r="G733" s="11"/>
     </row>
     <row r="734" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G734" s="13"/>
+      <c r="G734" s="11"/>
     </row>
     <row r="735" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G735" s="13"/>
+      <c r="G735" s="11"/>
     </row>
     <row r="736" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G736" s="13"/>
+      <c r="G736" s="11"/>
     </row>
     <row r="737" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G737" s="13"/>
+      <c r="G737" s="11"/>
     </row>
     <row r="738" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G738" s="13"/>
+      <c r="G738" s="11"/>
     </row>
     <row r="739" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G739" s="13"/>
+      <c r="G739" s="11"/>
     </row>
     <row r="740" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G740" s="13"/>
+      <c r="G740" s="11"/>
     </row>
     <row r="741" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G741" s="13"/>
+      <c r="G741" s="11"/>
     </row>
     <row r="742" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G742" s="13"/>
+      <c r="G742" s="11"/>
     </row>
     <row r="743" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G743" s="13"/>
+      <c r="G743" s="11"/>
     </row>
     <row r="744" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G744" s="13"/>
+      <c r="G744" s="11"/>
     </row>
     <row r="745" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G745" s="13"/>
+      <c r="G745" s="11"/>
     </row>
     <row r="746" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G746" s="13"/>
+      <c r="G746" s="11"/>
     </row>
     <row r="747" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G747" s="13"/>
+      <c r="G747" s="11"/>
     </row>
     <row r="748" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G748" s="13"/>
+      <c r="G748" s="11"/>
     </row>
     <row r="749" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G749" s="13"/>
+      <c r="G749" s="11"/>
     </row>
     <row r="750" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G750" s="13"/>
+      <c r="G750" s="11"/>
     </row>
     <row r="751" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G751" s="13"/>
+      <c r="G751" s="11"/>
     </row>
     <row r="752" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G752" s="13"/>
+      <c r="G752" s="11"/>
     </row>
     <row r="753" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G753" s="13"/>
+      <c r="G753" s="11"/>
     </row>
     <row r="754" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G754" s="13"/>
+      <c r="G754" s="11"/>
     </row>
     <row r="755" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G755" s="13"/>
+      <c r="G755" s="11"/>
     </row>
     <row r="756" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G756" s="13"/>
+      <c r="G756" s="11"/>
     </row>
     <row r="757" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G757" s="13"/>
+      <c r="G757" s="11"/>
     </row>
     <row r="758" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G758" s="13"/>
+      <c r="G758" s="11"/>
     </row>
     <row r="759" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G759" s="13"/>
+      <c r="G759" s="11"/>
     </row>
     <row r="760" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G760" s="13"/>
+      <c r="G760" s="11"/>
     </row>
     <row r="761" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G761" s="13"/>
+      <c r="G761" s="11"/>
     </row>
     <row r="762" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G762" s="13"/>
+      <c r="G762" s="11"/>
     </row>
     <row r="763" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G763" s="13"/>
+      <c r="G763" s="11"/>
     </row>
     <row r="764" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G764" s="13"/>
+      <c r="G764" s="11"/>
     </row>
     <row r="765" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G765" s="13"/>
+      <c r="G765" s="11"/>
     </row>
     <row r="766" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G766" s="13"/>
+      <c r="G766" s="11"/>
     </row>
     <row r="767" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G767" s="13"/>
+      <c r="G767" s="11"/>
     </row>
     <row r="768" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G768" s="13"/>
+      <c r="G768" s="11"/>
     </row>
     <row r="769" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G769" s="13"/>
+      <c r="G769" s="11"/>
     </row>
     <row r="770" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G770" s="13"/>
+      <c r="G770" s="11"/>
     </row>
     <row r="771" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G771" s="13"/>
+      <c r="G771" s="11"/>
     </row>
     <row r="772" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G772" s="13"/>
+      <c r="G772" s="11"/>
     </row>
     <row r="773" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G773" s="13"/>
+      <c r="G773" s="11"/>
     </row>
     <row r="774" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G774" s="13"/>
+      <c r="G774" s="11"/>
     </row>
     <row r="775" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G775" s="13"/>
+      <c r="G775" s="11"/>
     </row>
     <row r="776" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G776" s="13"/>
+      <c r="G776" s="11"/>
     </row>
     <row r="777" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G777" s="13"/>
+      <c r="G777" s="11"/>
     </row>
     <row r="778" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G778" s="13"/>
+      <c r="G778" s="11"/>
     </row>
     <row r="779" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G779" s="13"/>
+      <c r="G779" s="11"/>
     </row>
     <row r="780" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G780" s="13"/>
+      <c r="G780" s="11"/>
     </row>
     <row r="781" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G781" s="13"/>
+      <c r="G781" s="11"/>
     </row>
     <row r="782" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G782" s="13"/>
+      <c r="G782" s="11"/>
     </row>
     <row r="783" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G783" s="13"/>
+      <c r="G783" s="11"/>
     </row>
     <row r="784" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G784" s="13"/>
+      <c r="G784" s="11"/>
     </row>
     <row r="785" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G785" s="13"/>
+      <c r="G785" s="11"/>
     </row>
     <row r="786" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G786" s="13"/>
+      <c r="G786" s="11"/>
     </row>
     <row r="787" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G787" s="13"/>
+      <c r="G787" s="11"/>
     </row>
     <row r="788" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G788" s="13"/>
+      <c r="G788" s="11"/>
     </row>
     <row r="789" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G789" s="13"/>
+      <c r="G789" s="11"/>
     </row>
     <row r="790" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G790" s="13"/>
+      <c r="G790" s="11"/>
     </row>
     <row r="791" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G791" s="13"/>
+      <c r="G791" s="11"/>
     </row>
     <row r="792" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G792" s="13"/>
+      <c r="G792" s="11"/>
     </row>
     <row r="793" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G793" s="13"/>
+      <c r="G793" s="11"/>
     </row>
     <row r="794" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G794" s="13"/>
+      <c r="G794" s="11"/>
     </row>
     <row r="795" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G795" s="13"/>
+      <c r="G795" s="11"/>
     </row>
     <row r="796" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G796" s="13"/>
+      <c r="G796" s="11"/>
     </row>
     <row r="797" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G797" s="13"/>
+      <c r="G797" s="11"/>
     </row>
     <row r="798" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G798" s="13"/>
+      <c r="G798" s="11"/>
     </row>
     <row r="799" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G799" s="13"/>
+      <c r="G799" s="11"/>
     </row>
     <row r="800" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G800" s="13"/>
+      <c r="G800" s="11"/>
     </row>
     <row r="801" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G801" s="13"/>
+      <c r="G801" s="11"/>
     </row>
     <row r="802" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G802" s="13"/>
+      <c r="G802" s="11"/>
     </row>
     <row r="803" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G803" s="13"/>
+      <c r="G803" s="11"/>
     </row>
     <row r="804" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G804" s="13"/>
+      <c r="G804" s="11"/>
     </row>
     <row r="805" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G805" s="13"/>
+      <c r="G805" s="11"/>
     </row>
     <row r="806" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G806" s="13"/>
+      <c r="G806" s="11"/>
     </row>
     <row r="807" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G807" s="13"/>
+      <c r="G807" s="11"/>
     </row>
     <row r="808" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G808" s="13"/>
+      <c r="G808" s="11"/>
     </row>
     <row r="809" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G809" s="13"/>
+      <c r="G809" s="11"/>
     </row>
     <row r="810" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G810" s="13"/>
+      <c r="G810" s="11"/>
     </row>
     <row r="811" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G811" s="13"/>
+      <c r="G811" s="11"/>
     </row>
     <row r="812" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G812" s="13"/>
+      <c r="G812" s="11"/>
     </row>
     <row r="813" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G813" s="13"/>
+      <c r="G813" s="11"/>
     </row>
     <row r="814" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G814" s="13"/>
+      <c r="G814" s="11"/>
     </row>
     <row r="815" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G815" s="13"/>
+      <c r="G815" s="11"/>
     </row>
     <row r="816" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G816" s="13"/>
+      <c r="G816" s="11"/>
     </row>
     <row r="817" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G817" s="13"/>
+      <c r="G817" s="11"/>
     </row>
     <row r="818" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G818" s="13"/>
+      <c r="G818" s="11"/>
     </row>
     <row r="819" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G819" s="13"/>
+      <c r="G819" s="11"/>
     </row>
     <row r="820" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G820" s="13"/>
+      <c r="G820" s="11"/>
     </row>
     <row r="821" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G821" s="13"/>
+      <c r="G821" s="11"/>
     </row>
     <row r="822" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G822" s="13"/>
+      <c r="G822" s="11"/>
     </row>
     <row r="823" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G823" s="13"/>
+      <c r="G823" s="11"/>
     </row>
     <row r="824" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G824" s="13"/>
+      <c r="G824" s="11"/>
     </row>
     <row r="825" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G825" s="13"/>
+      <c r="G825" s="11"/>
     </row>
     <row r="826" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G826" s="13"/>
+      <c r="G826" s="11"/>
     </row>
     <row r="827" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G827" s="13"/>
+      <c r="G827" s="11"/>
     </row>
     <row r="828" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G828" s="13"/>
+      <c r="G828" s="11"/>
     </row>
     <row r="829" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G829" s="13"/>
+      <c r="G829" s="11"/>
     </row>
     <row r="830" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G830" s="13"/>
+      <c r="G830" s="11"/>
     </row>
     <row r="831" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G831" s="13"/>
+      <c r="G831" s="11"/>
     </row>
     <row r="832" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G832" s="13"/>
+      <c r="G832" s="11"/>
     </row>
     <row r="833" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G833" s="13"/>
+      <c r="G833" s="11"/>
     </row>
     <row r="834" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G834" s="13"/>
+      <c r="G834" s="11"/>
     </row>
     <row r="835" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G835" s="13"/>
+      <c r="G835" s="11"/>
     </row>
     <row r="836" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G836" s="13"/>
+      <c r="G836" s="11"/>
     </row>
     <row r="837" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G837" s="13"/>
+      <c r="G837" s="11"/>
     </row>
     <row r="838" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G838" s="13"/>
+      <c r="G838" s="11"/>
     </row>
     <row r="839" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G839" s="13"/>
+      <c r="G839" s="11"/>
     </row>
     <row r="840" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G840" s="13"/>
+      <c r="G840" s="11"/>
     </row>
     <row r="841" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G841" s="13"/>
+      <c r="G841" s="11"/>
     </row>
     <row r="842" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G842" s="13"/>
+      <c r="G842" s="11"/>
     </row>
     <row r="843" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G843" s="13"/>
+      <c r="G843" s="11"/>
     </row>
     <row r="844" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G844" s="13"/>
+      <c r="G844" s="11"/>
     </row>
     <row r="845" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G845" s="13"/>
+      <c r="G845" s="11"/>
     </row>
     <row r="846" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G846" s="13"/>
+      <c r="G846" s="11"/>
     </row>
     <row r="847" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G847" s="13"/>
+      <c r="G847" s="11"/>
     </row>
     <row r="848" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G848" s="13"/>
+      <c r="G848" s="11"/>
     </row>
     <row r="849" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G849" s="13"/>
+      <c r="G849" s="11"/>
     </row>
     <row r="850" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G850" s="13"/>
+      <c r="G850" s="11"/>
     </row>
     <row r="851" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G851" s="13"/>
+      <c r="G851" s="11"/>
     </row>
     <row r="852" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G852" s="13"/>
+      <c r="G852" s="11"/>
     </row>
     <row r="853" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G853" s="13"/>
+      <c r="G853" s="11"/>
     </row>
     <row r="854" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G854" s="13"/>
+      <c r="G854" s="11"/>
     </row>
     <row r="855" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G855" s="13"/>
+      <c r="G855" s="11"/>
     </row>
     <row r="856" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G856" s="13"/>
+      <c r="G856" s="11"/>
     </row>
     <row r="857" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G857" s="13"/>
+      <c r="G857" s="11"/>
     </row>
     <row r="858" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G858" s="13"/>
+      <c r="G858" s="11"/>
     </row>
     <row r="859" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G859" s="13"/>
+      <c r="G859" s="11"/>
     </row>
     <row r="860" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G860" s="13"/>
+      <c r="G860" s="11"/>
     </row>
     <row r="861" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G861" s="13"/>
+      <c r="G861" s="11"/>
     </row>
     <row r="862" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G862" s="13"/>
+      <c r="G862" s="11"/>
     </row>
     <row r="863" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G863" s="13"/>
+      <c r="G863" s="11"/>
     </row>
     <row r="864" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G864" s="13"/>
+      <c r="G864" s="11"/>
     </row>
     <row r="865" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G865" s="13"/>
+      <c r="G865" s="11"/>
     </row>
     <row r="866" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G866" s="13"/>
+      <c r="G866" s="11"/>
     </row>
     <row r="867" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G867" s="13"/>
+      <c r="G867" s="11"/>
     </row>
     <row r="868" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G868" s="13"/>
+      <c r="G868" s="11"/>
     </row>
     <row r="869" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G869" s="13"/>
+      <c r="G869" s="11"/>
     </row>
     <row r="870" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G870" s="13"/>
+      <c r="G870" s="11"/>
     </row>
     <row r="871" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G871" s="13"/>
+      <c r="G871" s="11"/>
     </row>
     <row r="872" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G872" s="13"/>
+      <c r="G872" s="11"/>
     </row>
     <row r="873" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G873" s="13"/>
+      <c r="G873" s="11"/>
     </row>
     <row r="874" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G874" s="13"/>
+      <c r="G874" s="11"/>
     </row>
     <row r="875" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G875" s="13"/>
+      <c r="G875" s="11"/>
     </row>
     <row r="876" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G876" s="13"/>
+      <c r="G876" s="11"/>
     </row>
     <row r="877" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G877" s="13"/>
+      <c r="G877" s="11"/>
     </row>
     <row r="878" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G878" s="13"/>
+      <c r="G878" s="11"/>
     </row>
     <row r="879" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G879" s="13"/>
+      <c r="G879" s="11"/>
     </row>
     <row r="880" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G880" s="13"/>
+      <c r="G880" s="11"/>
     </row>
     <row r="881" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G881" s="13"/>
+      <c r="G881" s="11"/>
     </row>
     <row r="882" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G882" s="13"/>
+      <c r="G882" s="11"/>
     </row>
     <row r="883" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G883" s="13"/>
+      <c r="G883" s="11"/>
     </row>
     <row r="884" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G884" s="13"/>
+      <c r="G884" s="11"/>
     </row>
     <row r="885" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G885" s="13"/>
+      <c r="G885" s="11"/>
     </row>
     <row r="886" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G886" s="13"/>
+      <c r="G886" s="11"/>
     </row>
     <row r="887" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G887" s="13"/>
+      <c r="G887" s="11"/>
     </row>
     <row r="888" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G888" s="13"/>
+      <c r="G888" s="11"/>
     </row>
     <row r="889" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G889" s="13"/>
+      <c r="G889" s="11"/>
     </row>
     <row r="890" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G890" s="13"/>
+      <c r="G890" s="11"/>
     </row>
     <row r="891" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G891" s="13"/>
+      <c r="G891" s="11"/>
     </row>
     <row r="892" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G892" s="13"/>
+      <c r="G892" s="11"/>
     </row>
     <row r="893" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G893" s="13"/>
+      <c r="G893" s="11"/>
     </row>
     <row r="894" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G894" s="13"/>
+      <c r="G894" s="11"/>
     </row>
     <row r="895" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G895" s="13"/>
+      <c r="G895" s="11"/>
     </row>
     <row r="896" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G896" s="13"/>
+      <c r="G896" s="11"/>
     </row>
     <row r="897" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G897" s="13"/>
+      <c r="G897" s="11"/>
     </row>
     <row r="898" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G898" s="13"/>
+      <c r="G898" s="11"/>
     </row>
     <row r="899" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G899" s="13"/>
+      <c r="G899" s="11"/>
     </row>
     <row r="900" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G900" s="13"/>
+      <c r="G900" s="11"/>
     </row>
     <row r="901" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G901" s="13"/>
+      <c r="G901" s="11"/>
     </row>
     <row r="902" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G902" s="13"/>
+      <c r="G902" s="11"/>
     </row>
     <row r="903" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G903" s="13"/>
+      <c r="G903" s="11"/>
     </row>
     <row r="904" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G904" s="13"/>
+      <c r="G904" s="11"/>
     </row>
     <row r="905" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G905" s="13"/>
+      <c r="G905" s="11"/>
     </row>
     <row r="906" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G906" s="13"/>
+      <c r="G906" s="11"/>
     </row>
     <row r="907" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G907" s="13"/>
+      <c r="G907" s="11"/>
     </row>
     <row r="908" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G908" s="13"/>
+      <c r="G908" s="11"/>
     </row>
     <row r="909" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G909" s="13"/>
+      <c r="G909" s="11"/>
     </row>
     <row r="910" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G910" s="13"/>
+      <c r="G910" s="11"/>
     </row>
     <row r="911" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G911" s="13"/>
+      <c r="G911" s="11"/>
     </row>
     <row r="912" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G912" s="13"/>
+      <c r="G912" s="11"/>
     </row>
     <row r="913" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G913" s="13"/>
+      <c r="G913" s="11"/>
     </row>
     <row r="914" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G914" s="13"/>
+      <c r="G914" s="11"/>
     </row>
     <row r="915" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G915" s="13"/>
+      <c r="G915" s="11"/>
     </row>
     <row r="916" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G916" s="13"/>
+      <c r="G916" s="11"/>
     </row>
     <row r="917" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G917" s="13"/>
+      <c r="G917" s="11"/>
     </row>
     <row r="918" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G918" s="13"/>
+      <c r="G918" s="11"/>
     </row>
     <row r="919" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G919" s="13"/>
+      <c r="G919" s="11"/>
     </row>
     <row r="920" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G920" s="13"/>
+      <c r="G920" s="11"/>
     </row>
     <row r="921" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G921" s="13"/>
+      <c r="G921" s="11"/>
     </row>
     <row r="922" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G922" s="13"/>
+      <c r="G922" s="11"/>
     </row>
     <row r="923" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G923" s="13"/>
+      <c r="G923" s="11"/>
     </row>
     <row r="924" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G924" s="13"/>
+      <c r="G924" s="11"/>
     </row>
     <row r="925" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G925" s="13"/>
+      <c r="G925" s="11"/>
     </row>
     <row r="926" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G926" s="13"/>
+      <c r="G926" s="11"/>
     </row>
     <row r="927" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G927" s="13"/>
+      <c r="G927" s="11"/>
     </row>
     <row r="928" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G928" s="13"/>
+      <c r="G928" s="11"/>
     </row>
     <row r="929" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G929" s="13"/>
+      <c r="G929" s="11"/>
     </row>
     <row r="930" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G930" s="13"/>
+      <c r="G930" s="11"/>
     </row>
     <row r="931" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G931" s="13"/>
+      <c r="G931" s="11"/>
     </row>
     <row r="932" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G932" s="13"/>
+      <c r="G932" s="11"/>
     </row>
     <row r="933" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G933" s="13"/>
+      <c r="G933" s="11"/>
     </row>
     <row r="934" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G934" s="13"/>
+      <c r="G934" s="11"/>
     </row>
     <row r="935" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G935" s="13"/>
+      <c r="G935" s="11"/>
     </row>
     <row r="936" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G936" s="13"/>
+      <c r="G936" s="11"/>
     </row>
     <row r="937" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G937" s="13"/>
+      <c r="G937" s="11"/>
     </row>
     <row r="938" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G938" s="13"/>
+      <c r="G938" s="11"/>
     </row>
     <row r="939" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G939" s="13"/>
+      <c r="G939" s="11"/>
     </row>
     <row r="940" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G940" s="13"/>
+      <c r="G940" s="11"/>
     </row>
     <row r="941" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G941" s="13"/>
+      <c r="G941" s="11"/>
     </row>
     <row r="942" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G942" s="13"/>
+      <c r="G942" s="11"/>
     </row>
     <row r="943" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G943" s="13"/>
+      <c r="G943" s="11"/>
     </row>
     <row r="944" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G944" s="13"/>
+      <c r="G944" s="11"/>
     </row>
     <row r="945" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G945" s="13"/>
+      <c r="G945" s="11"/>
     </row>
     <row r="946" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G946" s="13"/>
+      <c r="G946" s="11"/>
     </row>
     <row r="947" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G947" s="13"/>
+      <c r="G947" s="11"/>
     </row>
     <row r="948" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G948" s="13"/>
+      <c r="G948" s="11"/>
     </row>
     <row r="949" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G949" s="13"/>
+      <c r="G949" s="11"/>
     </row>
     <row r="950" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G950" s="13"/>
+      <c r="G950" s="11"/>
     </row>
     <row r="951" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G951" s="13"/>
+      <c r="G951" s="11"/>
     </row>
     <row r="952" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G952" s="13"/>
+      <c r="G952" s="11"/>
     </row>
     <row r="953" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G953" s="13"/>
+      <c r="G953" s="11"/>
     </row>
     <row r="954" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G954" s="13"/>
+      <c r="G954" s="11"/>
     </row>
     <row r="955" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G955" s="13"/>
+      <c r="G955" s="11"/>
     </row>
     <row r="956" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G956" s="13"/>
+      <c r="G956" s="11"/>
     </row>
     <row r="957" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G957" s="13"/>
+      <c r="G957" s="11"/>
     </row>
     <row r="958" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G958" s="13"/>
+      <c r="G958" s="11"/>
     </row>
     <row r="959" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G959" s="13"/>
+      <c r="G959" s="11"/>
     </row>
     <row r="960" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G960" s="13"/>
+      <c r="G960" s="11"/>
     </row>
     <row r="961" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G961" s="13"/>
+      <c r="G961" s="11"/>
     </row>
     <row r="962" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G962" s="13"/>
+      <c r="G962" s="11"/>
     </row>
     <row r="963" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G963" s="13"/>
+      <c r="G963" s="11"/>
     </row>
     <row r="964" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G964" s="13"/>
+      <c r="G964" s="11"/>
     </row>
     <row r="965" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G965" s="13"/>
+      <c r="G965" s="11"/>
     </row>
     <row r="966" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G966" s="13"/>
+      <c r="G966" s="11"/>
     </row>
     <row r="967" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G967" s="13"/>
+      <c r="G967" s="11"/>
     </row>
     <row r="968" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G968" s="13"/>
+      <c r="G968" s="11"/>
     </row>
     <row r="969" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G969" s="13"/>
+      <c r="G969" s="11"/>
     </row>
     <row r="970" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G970" s="13"/>
+      <c r="G970" s="11"/>
     </row>
     <row r="971" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G971" s="13"/>
+      <c r="G971" s="11"/>
     </row>
     <row r="972" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G972" s="13"/>
+      <c r="G972" s="11"/>
     </row>
     <row r="973" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G973" s="13"/>
+      <c r="G973" s="11"/>
     </row>
     <row r="974" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G974" s="13"/>
+      <c r="G974" s="11"/>
     </row>
     <row r="975" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G975" s="13"/>
+      <c r="G975" s="11"/>
     </row>
     <row r="976" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G976" s="13"/>
+      <c r="G976" s="11"/>
     </row>
     <row r="977" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G977" s="13"/>
+      <c r="G977" s="11"/>
     </row>
     <row r="978" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G978" s="13"/>
+      <c r="G978" s="11"/>
     </row>
     <row r="979" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G979" s="13"/>
+      <c r="G979" s="11"/>
     </row>
     <row r="980" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G980" s="13"/>
+      <c r="G980" s="11"/>
     </row>
     <row r="981" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G981" s="13"/>
+      <c r="G981" s="11"/>
     </row>
     <row r="982" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G982" s="13"/>
+      <c r="G982" s="11"/>
     </row>
     <row r="983" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G983" s="13"/>
+      <c r="G983" s="11"/>
     </row>
     <row r="984" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G984" s="13"/>
+      <c r="G984" s="11"/>
     </row>
     <row r="985" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G985" s="13"/>
+      <c r="G985" s="11"/>
     </row>
     <row r="986" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G986" s="13"/>
+      <c r="G986" s="11"/>
     </row>
     <row r="987" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G987" s="13"/>
+      <c r="G987" s="11"/>
     </row>
     <row r="988" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G988" s="13"/>
+      <c r="G988" s="11"/>
     </row>
     <row r="989" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G989" s="13"/>
+      <c r="G989" s="11"/>
     </row>
     <row r="990" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G990" s="13"/>
+      <c r="G990" s="11"/>
     </row>
     <row r="991" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G991" s="13"/>
+      <c r="G991" s="11"/>
     </row>
     <row r="992" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G992" s="13"/>
+      <c r="G992" s="11"/>
     </row>
     <row r="993" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G993" s="13"/>
+      <c r="G993" s="11"/>
     </row>
     <row r="994" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G994" s="13"/>
+      <c r="G994" s="11"/>
     </row>
     <row r="995" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G995" s="13"/>
+      <c r="G995" s="11"/>
     </row>
     <row r="996" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G996" s="13"/>
+      <c r="G996" s="11"/>
     </row>
     <row r="997" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G997" s="13"/>
+      <c r="G997" s="11"/>
     </row>
     <row r="998" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G998" s="13"/>
+      <c r="G998" s="11"/>
     </row>
     <row r="999" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G999" s="13"/>
+      <c r="G999" s="11"/>
     </row>
     <row r="1000" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1000" s="13"/>
+      <c r="G1000" s="11"/>
     </row>
     <row r="1001" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1001" s="13"/>
+      <c r="G1001" s="11"/>
     </row>
     <row r="1002" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1002" s="13"/>
+      <c r="G1002" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:A26"/>
+  <mergeCells count="49">
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="D51:F51"/>
     <mergeCell ref="A52:B52"/>
@@ -6507,28 +6531,23 @@
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G36:G48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="C35:F35"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G36:G48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -6544,7 +6563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A235" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A235" workbookViewId="0">
       <selection activeCell="C244" sqref="C244"/>
     </sheetView>
   </sheetViews>
@@ -6557,19 +6576,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="63"/>
       <c r="C1" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -6578,99 +6597,99 @@
       <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>160</v>
+      <c r="B7" s="28" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="24" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>204</v>
+      <c r="B12" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>203</v>
+      <c r="B13" s="28" t="s">
+        <v>186</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>71</v>
@@ -6681,109 +6700,109 @@
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="27" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="36"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>174</v>
+      <c r="B20" s="28" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>175</v>
+      <c r="B21" s="32" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>176</v>
+      <c r="B22" s="32" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="26" t="s">
+      <c r="B25" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="27" t="s">
+      <c r="B26" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6792,139 +6811,139 @@
       <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="37"/>
+      <c r="B28" s="36"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="36"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>179</v>
+      <c r="B32" s="28" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="14"/>
+      <c r="B33" s="12"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="31" t="s">
-        <v>180</v>
+      <c r="B34" s="28" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="14"/>
+      <c r="B35" s="12"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="14"/>
+      <c r="B36" s="12"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>135</v>
+      <c r="B37" s="28" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>181</v>
+      <c r="B38" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="78" t="s">
+      <c r="A40" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="37"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="27" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="31" t="s">
-        <v>179</v>
+      <c r="B42" s="28" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="14"/>
+      <c r="B43" s="12"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="31" t="s">
-        <v>180</v>
+      <c r="B44" s="28" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="31" t="s">
-        <v>135</v>
+      <c r="B46" s="28" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="31" t="s">
-        <v>202</v>
+      <c r="B47" s="28" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6932,19 +6951,19 @@
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="50"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="37"/>
+      <c r="B53" s="36"/>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6954,95 +6973,95 @@
       <c r="B55" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" s="27" t="s">
+      <c r="B56" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" s="27" t="s">
+      <c r="B57" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="31"/>
+      <c r="B58" s="28"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C59" s="26" t="s">
+      <c r="B59" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="26" t="s">
+      <c r="B60" s="12"/>
+      <c r="C60" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C61" s="28" t="s">
+      <c r="B61" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="27" t="s">
+      <c r="B62" s="12"/>
+      <c r="C62" s="24" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="31" t="s">
-        <v>204</v>
+      <c r="B63" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="31" t="s">
-        <v>203</v>
+      <c r="B64" s="28" t="s">
+        <v>186</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>71</v>
@@ -7053,97 +7072,97 @@
       <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="75" t="s">
+      <c r="A66" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="27" t="s">
+      <c r="B66" s="63"/>
+      <c r="C66" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="76" t="s">
+      <c r="A67" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="37"/>
+      <c r="B67" s="36"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C70" s="27" t="s">
+      <c r="B70" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="14"/>
+      <c r="B71" s="12"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="14"/>
+      <c r="B72" s="12"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="14"/>
+      <c r="B73" s="12"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="27" t="s">
+      <c r="B74" s="12"/>
+      <c r="C74" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="27" t="s">
+      <c r="B75" s="12"/>
+      <c r="C75" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="26" t="s">
+      <c r="B76" s="12"/>
+      <c r="C76" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="27" t="s">
+      <c r="B77" s="12"/>
+      <c r="C77" s="24" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7152,121 +7171,121 @@
       <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="76" t="s">
+      <c r="A79" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="37"/>
+      <c r="B79" s="36"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="76" t="s">
+      <c r="A80" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B80" s="37"/>
+      <c r="B80" s="36"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B83" s="14"/>
+      <c r="B83" s="12"/>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
+      <c r="A84" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B84" s="14"/>
+      <c r="B84" s="12"/>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="14"/>
+      <c r="B85" s="12"/>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="14"/>
+      <c r="B86" s="12"/>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B87" s="14"/>
+      <c r="B87" s="12"/>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="14"/>
+      <c r="B88" s="12"/>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B89" s="14"/>
+      <c r="B89" s="12"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="78" t="s">
+      <c r="A91" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="37"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="27" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B93" s="5"/>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="17" t="s">
         <v>90</v>
       </c>
       <c r="B94" s="5"/>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="17" t="s">
         <v>99</v>
       </c>
       <c r="B95" s="5"/>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B96" s="5"/>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="17" t="s">
         <v>93</v>
       </c>
       <c r="B97" s="5"/>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B98" s="5"/>
@@ -7276,19 +7295,19 @@
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="48" t="s">
+      <c r="A103" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B103" s="50"/>
+      <c r="B103" s="63"/>
       <c r="C103" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="56" t="s">
+      <c r="A104" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B104" s="37"/>
+      <c r="B104" s="36"/>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7298,97 +7317,97 @@
       <c r="B106" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C106" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B107" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="C107" s="27" t="s">
+      <c r="B107" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B108" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="C108" s="27" t="s">
+      <c r="B108" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C108" s="24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B109" s="31" t="s">
-        <v>167</v>
+      <c r="B109" s="28" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B110" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C110" s="26" t="s">
+      <c r="B110" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="26" t="s">
+      <c r="B111" s="12"/>
+      <c r="C111" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B112" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C112" s="28" t="s">
+      <c r="B112" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="29" t="s">
+      <c r="A113" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="27" t="s">
+      <c r="B113" s="12"/>
+      <c r="C113" s="24" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="29" t="s">
+      <c r="A114" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B114" s="31" t="s">
-        <v>204</v>
+      <c r="B114" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="29" t="s">
+      <c r="A115" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B115" s="31" t="s">
-        <v>203</v>
+      <c r="B115" s="28" t="s">
+        <v>186</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>71</v>
@@ -7399,109 +7418,109 @@
       <c r="B116" s="3"/>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="75" t="s">
+      <c r="A117" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B117" s="50"/>
-      <c r="C117" s="27" t="s">
+      <c r="B117" s="63"/>
+      <c r="C117" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="76" t="s">
+      <c r="A118" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="37"/>
+      <c r="B118" s="36"/>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="21" t="s">
+      <c r="A120" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B120" s="21" t="s">
+      <c r="B120" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="26" t="s">
+      <c r="C120" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B121" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C121" s="27" t="s">
+      <c r="B121" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C121" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="31" t="s">
-        <v>184</v>
+      <c r="B122" s="28" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B123" s="35" t="s">
-        <v>185</v>
+      <c r="B123" s="32" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B124" s="35" t="s">
-        <v>186</v>
+      <c r="B124" s="32" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="27" t="s">
+      <c r="B125" s="12"/>
+      <c r="C125" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B126" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C126" s="27" t="s">
+      <c r="B126" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C126" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B127" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="C127" s="26" t="s">
+      <c r="B127" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C127" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B128" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="C128" s="27" t="s">
+      <c r="B128" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C128" s="24" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7510,139 +7529,139 @@
       <c r="B129" s="3"/>
     </row>
     <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="76" t="s">
+      <c r="A130" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B130" s="37"/>
+      <c r="B130" s="36"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="76" t="s">
+      <c r="A131" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B131" s="37"/>
+      <c r="B131" s="36"/>
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="21" t="s">
+      <c r="A133" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B133" s="21" t="s">
+      <c r="B133" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B134" s="31" t="s">
-        <v>179</v>
+      <c r="B134" s="28" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="20" t="s">
+      <c r="A135" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B135" s="14"/>
+      <c r="B135" s="12"/>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B136" s="31" t="s">
-        <v>180</v>
+      <c r="B136" s="28" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B137" s="14"/>
+      <c r="B137" s="12"/>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B138" s="14"/>
+      <c r="B138" s="12"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B139" s="31" t="s">
-        <v>135</v>
+      <c r="B139" s="28" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B140" s="31" t="s">
-        <v>181</v>
+      <c r="B140" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="78" t="s">
+      <c r="A142" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="B142" s="37"/>
+      <c r="B142" s="36"/>
       <c r="C142" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="20" t="s">
+      <c r="A143" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B143" s="30" t="s">
+      <c r="B143" s="27" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="20" t="s">
+      <c r="A144" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B144" s="31" t="s">
-        <v>179</v>
+      <c r="B144" s="28" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="20" t="s">
+      <c r="A145" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B145" s="14"/>
+      <c r="B145" s="12"/>
     </row>
     <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="20" t="s">
+      <c r="A146" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B146" s="31" t="s">
-        <v>180</v>
+      <c r="B146" s="28" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="20" t="s">
+      <c r="A147" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B147" s="5"/>
     </row>
     <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="20" t="s">
+      <c r="A148" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B148" s="31" t="s">
-        <v>135</v>
+      <c r="B148" s="28" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="20" t="s">
+      <c r="A149" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B149" s="31" t="s">
-        <v>202</v>
+      <c r="B149" s="28" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7650,19 +7669,19 @@
     <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="48" t="s">
+      <c r="A154" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B154" s="50"/>
+      <c r="B154" s="63"/>
       <c r="C154" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="56" t="s">
+      <c r="A155" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B155" s="37"/>
+      <c r="B155" s="36"/>
     </row>
     <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7672,97 +7691,97 @@
       <c r="B157" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C157" s="26" t="s">
+      <c r="C157" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="14" t="s">
+      <c r="A158" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B158" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="C158" s="27" t="s">
+      <c r="B158" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C158" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B159" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="C159" s="27" t="s">
+      <c r="B159" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C159" s="24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B160" s="31" t="s">
-        <v>170</v>
+      <c r="B160" s="28" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B161" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C161" s="26" t="s">
+      <c r="B161" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C161" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="14" t="s">
+      <c r="A162" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B162" s="14"/>
-      <c r="C162" s="26" t="s">
+      <c r="B162" s="12"/>
+      <c r="C162" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B163" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C163" s="28" t="s">
+      <c r="B163" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C163" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="29" t="s">
+      <c r="A164" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B164" s="14"/>
-      <c r="C164" s="27" t="s">
+      <c r="B164" s="12"/>
+      <c r="C164" s="24" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="29" t="s">
+      <c r="A165" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B165" s="31" t="s">
-        <v>204</v>
+      <c r="B165" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="29" t="s">
+      <c r="A166" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B166" s="31" t="s">
-        <v>203</v>
+      <c r="B166" s="28" t="s">
+        <v>186</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>71</v>
@@ -7773,107 +7792,107 @@
       <c r="B167" s="3"/>
     </row>
     <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="75" t="s">
+      <c r="A168" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B168" s="50"/>
-      <c r="C168" s="27" t="s">
+      <c r="B168" s="63"/>
+      <c r="C168" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="76" t="s">
+      <c r="A169" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="B169" s="37"/>
+      <c r="B169" s="36"/>
     </row>
     <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
     </row>
     <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="21" t="s">
+      <c r="A171" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B171" s="21" t="s">
+      <c r="B171" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C171" s="26" t="s">
+      <c r="C171" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="14" t="s">
+      <c r="A172" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B172" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C172" s="27" t="s">
+      <c r="B172" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C172" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="14" t="s">
+      <c r="A173" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B173" s="31" t="s">
-        <v>189</v>
+      <c r="B173" s="28" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="14" t="s">
+      <c r="A174" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B174" s="14"/>
+      <c r="B174" s="12"/>
     </row>
     <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="14" t="s">
+      <c r="A175" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B175" s="35" t="s">
-        <v>191</v>
+      <c r="B175" s="32" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="14" t="s">
+      <c r="A176" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B176" s="14"/>
-      <c r="C176" s="27" t="s">
+      <c r="B176" s="12"/>
+      <c r="C176" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="14" t="s">
+      <c r="A177" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B177" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C177" s="27" t="s">
+      <c r="B177" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C177" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="14" t="s">
+      <c r="A178" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B178" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C178" s="26" t="s">
+      <c r="B178" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C178" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="14" t="s">
+      <c r="A179" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B179" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C179" s="27" t="s">
+      <c r="B179" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C179" s="24" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7882,139 +7901,139 @@
       <c r="B180" s="3"/>
     </row>
     <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="76" t="s">
+      <c r="A181" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B181" s="37"/>
+      <c r="B181" s="36"/>
     </row>
     <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="76" t="s">
+      <c r="A182" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B182" s="37"/>
+      <c r="B182" s="36"/>
     </row>
     <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
     </row>
     <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="21" t="s">
+      <c r="A184" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B184" s="21" t="s">
+      <c r="B184" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="14" t="s">
+      <c r="A185" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B185" s="31" t="s">
-        <v>179</v>
+      <c r="B185" s="28" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="20" t="s">
+      <c r="A186" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B186" s="14"/>
+      <c r="B186" s="12"/>
     </row>
     <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="14" t="s">
+      <c r="A187" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B187" s="31" t="s">
-        <v>180</v>
+      <c r="B187" s="28" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="14" t="s">
+      <c r="A188" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B188" s="14"/>
+      <c r="B188" s="12"/>
     </row>
     <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="14" t="s">
+      <c r="A189" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B189" s="14"/>
+      <c r="B189" s="12"/>
     </row>
     <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="14" t="s">
+      <c r="A190" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B190" s="31" t="s">
-        <v>135</v>
+      <c r="B190" s="28" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="14" t="s">
+      <c r="A191" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B191" s="31" t="s">
-        <v>181</v>
+      <c r="B191" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="78" t="s">
+      <c r="A193" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="B193" s="37"/>
+      <c r="B193" s="36"/>
       <c r="C193" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="20" t="s">
+      <c r="A194" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B194" s="30" t="s">
+      <c r="B194" s="27" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="20" t="s">
+      <c r="A195" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B195" s="31" t="s">
-        <v>179</v>
+      <c r="B195" s="28" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="20" t="s">
+      <c r="A196" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B196" s="14"/>
+      <c r="B196" s="12"/>
     </row>
     <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="20" t="s">
+      <c r="A197" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B197" s="31" t="s">
-        <v>180</v>
+      <c r="B197" s="28" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="20" t="s">
+      <c r="A198" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B198" s="5"/>
     </row>
     <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="20" t="s">
+      <c r="A199" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B199" s="31" t="s">
-        <v>135</v>
+      <c r="B199" s="28" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="20" t="s">
+      <c r="A200" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B200" s="31" t="s">
-        <v>202</v>
+      <c r="B200" s="28" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8022,19 +8041,19 @@
     <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="48" t="s">
+      <c r="A205" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B205" s="48"/>
+      <c r="B205" s="61"/>
       <c r="C205" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="56" t="s">
+      <c r="A206" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B206" s="56"/>
+      <c r="B206" s="68"/>
     </row>
     <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8044,97 +8063,97 @@
       <c r="B208" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C208" s="26" t="s">
+      <c r="C208" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="14" t="s">
+      <c r="A209" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B209" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C209" s="27" t="s">
+      <c r="B209" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C209" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="14" t="s">
+      <c r="A210" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B210" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C210" s="27" t="s">
+      <c r="B210" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C210" s="24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="14" t="s">
+      <c r="A211" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B211" s="31" t="s">
-        <v>170</v>
+      <c r="B211" s="28" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="14" t="s">
+      <c r="A212" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B212" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C212" s="26" t="s">
+      <c r="B212" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C212" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="14" t="s">
+      <c r="A213" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B213" s="14"/>
-      <c r="C213" s="26" t="s">
+      <c r="B213" s="12"/>
+      <c r="C213" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="14" t="s">
+      <c r="A214" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B214" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C214" s="28" t="s">
+      <c r="B214" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C214" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="29" t="s">
+      <c r="A215" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B215" s="14"/>
-      <c r="C215" s="27" t="s">
+      <c r="B215" s="12"/>
+      <c r="C215" s="24" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="29" t="s">
+      <c r="A216" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B216" s="31" t="s">
-        <v>204</v>
+      <c r="B216" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="29" t="s">
+      <c r="A217" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B217" s="31" t="s">
-        <v>203</v>
+      <c r="B217" s="28" t="s">
+        <v>186</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>71</v>
@@ -8145,109 +8164,109 @@
       <c r="B218" s="3"/>
     </row>
     <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="75" t="s">
+      <c r="A219" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B219" s="75"/>
-      <c r="C219" s="27" t="s">
+      <c r="B219" s="74"/>
+      <c r="C219" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="76" t="s">
+      <c r="A220" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="B220" s="76"/>
+      <c r="B220" s="75"/>
     </row>
     <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
     </row>
     <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="21" t="s">
+      <c r="A222" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B222" s="21" t="s">
+      <c r="B222" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C222" s="26" t="s">
+      <c r="C222" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="14" t="s">
+      <c r="A223" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B223" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C223" s="27" t="s">
+      <c r="B223" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C223" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="14" t="s">
+      <c r="A224" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B224" s="31" t="s">
-        <v>196</v>
+      <c r="B224" s="28" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="14" t="s">
+      <c r="A225" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B225" s="35" t="s">
-        <v>198</v>
+      <c r="B225" s="32" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="14" t="s">
+      <c r="A226" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B226" s="35" t="s">
-        <v>197</v>
+      <c r="B226" s="32" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="14" t="s">
+      <c r="A227" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B227" s="14"/>
-      <c r="C227" s="27" t="s">
+      <c r="B227" s="12"/>
+      <c r="C227" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="14" t="s">
+      <c r="A228" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B228" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C228" s="27" t="s">
+      <c r="B228" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C228" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="14" t="s">
+      <c r="A229" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B229" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C229" s="26" t="s">
+      <c r="B229" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C229" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="14" t="s">
+      <c r="A230" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B230" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C230" s="27" t="s">
+      <c r="B230" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C230" s="24" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8256,77 +8275,77 @@
       <c r="B231" s="3"/>
     </row>
     <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="76" t="s">
+      <c r="A232" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B232" s="76"/>
+      <c r="B232" s="75"/>
     </row>
     <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="76" t="s">
+      <c r="A233" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B233" s="76"/>
+      <c r="B233" s="75"/>
     </row>
     <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
     </row>
     <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="21" t="s">
+      <c r="A235" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B235" s="21" t="s">
+      <c r="B235" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="14" t="s">
+      <c r="A236" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B236" s="31" t="s">
-        <v>179</v>
+      <c r="B236" s="28" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="20" t="s">
+      <c r="A237" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B237" s="14"/>
+      <c r="B237" s="12"/>
     </row>
     <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="14" t="s">
+      <c r="A238" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B238" s="31" t="s">
-        <v>180</v>
+      <c r="B238" s="28" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="14" t="s">
+      <c r="A239" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B239" s="14"/>
+      <c r="B239" s="12"/>
     </row>
     <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="14" t="s">
+      <c r="A240" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B240" s="14"/>
+      <c r="B240" s="12"/>
     </row>
     <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="14" t="s">
+      <c r="A241" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B241" s="31" t="s">
-        <v>135</v>
+      <c r="B241" s="28" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="14" t="s">
+      <c r="A242" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B242" s="31" t="s">
-        <v>181</v>
+      <c r="B242" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8340,55 +8359,55 @@
       </c>
     </row>
     <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="20" t="s">
+      <c r="A245" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B245" s="30" t="s">
+      <c r="B245" s="27" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="20" t="s">
+      <c r="A246" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B246" s="31" t="s">
-        <v>179</v>
+      <c r="B246" s="28" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="20" t="s">
+      <c r="A247" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B247" s="14"/>
+      <c r="B247" s="12"/>
     </row>
     <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="20" t="s">
+      <c r="A248" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B248" s="31" t="s">
-        <v>180</v>
+      <c r="B248" s="28" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="20" t="s">
+      <c r="A249" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B249" s="5"/>
     </row>
     <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="20" t="s">
+      <c r="A250" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B250" s="31" t="s">
-        <v>135</v>
+      <c r="B250" s="28" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="20" t="s">
+      <c r="A251" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B251" s="31" t="s">
-        <v>202</v>
+      <c r="B251" s="28" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9142,41 +9161,41 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A66:B66"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A244:B244"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" location="4-pi-sheet" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -9239,18 +9258,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -9268,8 +9287,8 @@
       <c r="B5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>135</v>
+      <c r="C5" s="31" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9282,8 +9301,8 @@
         <v>106</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="34" t="s">
-        <v>154</v>
+      <c r="C7" s="31" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -9293,8 +9312,8 @@
       <c r="B8" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>155</v>
+      <c r="C8" s="28" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -9304,8 +9323,8 @@
       <c r="B9" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>156</v>
+      <c r="C9" s="31" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -9315,8 +9334,8 @@
       <c r="B10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>157</v>
+      <c r="C10" s="31" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9324,8 +9343,8 @@
         <v>113</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="34" t="s">
-        <v>135</v>
+      <c r="C11" s="31" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -9333,8 +9352,8 @@
         <v>114</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="34" t="s">
-        <v>131</v>
+      <c r="C12" s="31" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
